--- a/data/words.xlsx
+++ b/data/words.xlsx
@@ -16,30 +16,6 @@
     <t>word</t>
   </si>
   <si>
-    <t>aas</t>
-  </si>
-  <si>
-    <t>acne</t>
-  </si>
-  <si>
-    <t>acnes</t>
-  </si>
-  <si>
-    <t>afore</t>
-  </si>
-  <si>
-    <t>afreet</t>
-  </si>
-  <si>
-    <t>afreets</t>
-  </si>
-  <si>
-    <t>afro</t>
-  </si>
-  <si>
-    <t>afros</t>
-  </si>
-  <si>
     <t>ail</t>
   </si>
   <si>
@@ -58,6 +34,12 @@
     <t>air</t>
   </si>
   <si>
+    <t>aired</t>
+  </si>
+  <si>
+    <t>airest</t>
+  </si>
+  <si>
     <t>airn</t>
   </si>
   <si>
@@ -82,6 +64,18 @@
     <t>ale</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>alerted</t>
+  </si>
+  <si>
+    <t>alerter</t>
+  </si>
+  <si>
+    <t>alerts</t>
+  </si>
+  <si>
     <t>ales</t>
   </si>
   <si>
@@ -100,6 +94,9 @@
     <t>aline</t>
   </si>
   <si>
+    <t>alined</t>
+  </si>
+  <si>
     <t>aliner</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
     <t>alines</t>
   </si>
   <si>
+    <t>alist</t>
+  </si>
+  <si>
     <t>alit</t>
   </si>
   <si>
@@ -127,10 +127,22 @@
     <t>als</t>
   </si>
   <si>
-    <t>ana</t>
-  </si>
-  <si>
-    <t>anas</t>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>altered</t>
+  </si>
+  <si>
+    <t>altering</t>
+  </si>
+  <si>
+    <t>alters</t>
+  </si>
+  <si>
+    <t>alts</t>
   </si>
   <si>
     <t>ane</t>
@@ -139,9 +151,6 @@
     <t>anes</t>
   </si>
   <si>
-    <t>anew</t>
-  </si>
-  <si>
     <t>anger</t>
   </si>
   <si>
@@ -172,7 +181,7 @@
     <t>anise</t>
   </si>
   <si>
-    <t>ansa</t>
+    <t>anises</t>
   </si>
   <si>
     <t>ant</t>
@@ -181,6 +190,9 @@
     <t>ante</t>
   </si>
   <si>
+    <t>anted</t>
+  </si>
+  <si>
     <t>antes</t>
   </si>
   <si>
@@ -199,6 +211,12 @@
     <t>ants</t>
   </si>
   <si>
+    <t>antsier</t>
+  </si>
+  <si>
+    <t>antsiest</t>
+  </si>
+  <si>
     <t>ape</t>
   </si>
   <si>
@@ -223,21 +241,24 @@
     <t>aplites</t>
   </si>
   <si>
-    <t>apres</t>
-  </si>
-  <si>
     <t>apse</t>
   </si>
   <si>
-    <t>arar</t>
-  </si>
-  <si>
-    <t>arars</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
+    <t>arene</t>
+  </si>
+  <si>
+    <t>arenes</t>
+  </si>
+  <si>
+    <t>arenite</t>
+  </si>
+  <si>
+    <t>arenites</t>
+  </si>
+  <si>
     <t>ares</t>
   </si>
   <si>
@@ -253,42 +274,15 @@
     <t>arets</t>
   </si>
   <si>
-    <t>arf</t>
-  </si>
-  <si>
     <t>argent</t>
   </si>
   <si>
     <t>argents</t>
   </si>
   <si>
-    <t>aria</t>
-  </si>
-  <si>
-    <t>arias</t>
-  </si>
-  <si>
-    <t>arna</t>
-  </si>
-  <si>
-    <t>arnas</t>
-  </si>
-  <si>
-    <t>arose</t>
-  </si>
-  <si>
-    <t>arpa</t>
-  </si>
-  <si>
-    <t>arpas</t>
-  </si>
-  <si>
     <t>ars</t>
   </si>
   <si>
-    <t>arse</t>
-  </si>
-  <si>
     <t>art</t>
   </si>
   <si>
@@ -310,10 +304,13 @@
     <t>arts</t>
   </si>
   <si>
-    <t>arvo</t>
-  </si>
-  <si>
-    <t>arvos</t>
+    <t>artsier</t>
+  </si>
+  <si>
+    <t>artsies</t>
+  </si>
+  <si>
+    <t>artsiest</t>
   </si>
   <si>
     <t>asp</t>
@@ -355,85 +352,109 @@
     <t>aster</t>
   </si>
   <si>
-    <t>astern</t>
-  </si>
-  <si>
     <t>ate</t>
   </si>
   <si>
     <t>ates</t>
   </si>
   <si>
-    <t>awe</t>
-  </si>
-  <si>
-    <t>awee</t>
-  </si>
-  <si>
-    <t>awes</t>
-  </si>
-  <si>
-    <t>awn</t>
-  </si>
-  <si>
-    <t>awns</t>
-  </si>
-  <si>
-    <t>caa</t>
-  </si>
-  <si>
-    <t>caas</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>canaster</t>
-  </si>
-  <si>
-    <t>cane</t>
-  </si>
-  <si>
-    <t>canes</t>
-  </si>
-  <si>
-    <t>cans</t>
-  </si>
-  <si>
-    <t>canso</t>
-  </si>
-  <si>
-    <t>canst</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>carap</t>
-  </si>
-  <si>
-    <t>carn</t>
-  </si>
-  <si>
-    <t>carnet</t>
-  </si>
-  <si>
-    <t>carnets</t>
-  </si>
-  <si>
-    <t>carns</t>
-  </si>
-  <si>
-    <t>carp</t>
-  </si>
-  <si>
-    <t>carpi</t>
-  </si>
-  <si>
-    <t>caw</t>
-  </si>
-  <si>
-    <t>caws</t>
+    <t>den</t>
+  </si>
+  <si>
+    <t>denar</t>
+  </si>
+  <si>
+    <t>dene</t>
+  </si>
+  <si>
+    <t>deni</t>
+  </si>
+  <si>
+    <t>denial</t>
+  </si>
+  <si>
+    <t>denier</t>
+  </si>
+  <si>
+    <t>deniers</t>
+  </si>
+  <si>
+    <t>denies</t>
+  </si>
+  <si>
+    <t>denis</t>
+  </si>
+  <si>
+    <t>dens</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>denser</t>
+  </si>
+  <si>
+    <t>densest</t>
+  </si>
+  <si>
+    <t>dent</t>
+  </si>
+  <si>
+    <t>dents</t>
+  </si>
+  <si>
+    <t>dere</t>
+  </si>
+  <si>
+    <t>deres</t>
+  </si>
+  <si>
+    <t>dering</t>
+  </si>
+  <si>
+    <t>desalt</t>
+  </si>
+  <si>
+    <t>desalter</t>
+  </si>
+  <si>
+    <t>desalting</t>
+  </si>
+  <si>
+    <t>desalts</t>
+  </si>
+  <si>
+    <t>desi</t>
+  </si>
+  <si>
+    <t>desine</t>
+  </si>
+  <si>
+    <t>desire</t>
+  </si>
+  <si>
+    <t>desires</t>
+  </si>
+  <si>
+    <t>desist</t>
+  </si>
+  <si>
+    <t>detrain</t>
+  </si>
+  <si>
+    <t>detrains</t>
+  </si>
+  <si>
+    <t>drent</t>
+  </si>
+  <si>
+    <t>drest</t>
+  </si>
+  <si>
+    <t>dries</t>
+  </si>
+  <si>
+    <t>driest</t>
   </si>
   <si>
     <t>eale</t>
@@ -445,12 +466,33 @@
     <t>ean</t>
   </si>
   <si>
+    <t>eaned</t>
+  </si>
+  <si>
     <t>eans</t>
   </si>
   <si>
     <t>ear</t>
   </si>
   <si>
+    <t>earn</t>
+  </si>
+  <si>
+    <t>earned</t>
+  </si>
+  <si>
+    <t>earner</t>
+  </si>
+  <si>
+    <t>earners</t>
+  </si>
+  <si>
+    <t>earnest</t>
+  </si>
+  <si>
+    <t>earns</t>
+  </si>
+  <si>
     <t>ears</t>
   </si>
   <si>
@@ -460,6 +502,39 @@
     <t>eas</t>
   </si>
   <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>eased</t>
+  </si>
+  <si>
+    <t>easer</t>
+  </si>
+  <si>
+    <t>eases</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>easies</t>
+  </si>
+  <si>
+    <t>easiest</t>
+  </si>
+  <si>
+    <t>easing</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>easted</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
     <t>eat</t>
   </si>
   <si>
@@ -487,7 +562,7 @@
     <t>eats</t>
   </si>
   <si>
-    <t>een</t>
+    <t>eds</t>
   </si>
   <si>
     <t>egret</t>
@@ -568,6 +643,12 @@
     <t>elsins</t>
   </si>
   <si>
+    <t>elt</t>
+  </si>
+  <si>
+    <t>elts</t>
+  </si>
+  <si>
     <t>enate</t>
   </si>
   <si>
@@ -601,7 +682,10 @@
     <t>ens</t>
   </si>
   <si>
-    <t>enserf</t>
+    <t>ensate</t>
+  </si>
+  <si>
+    <t>ensile</t>
   </si>
   <si>
     <t>entail</t>
@@ -649,6 +733,15 @@
     <t>entraps</t>
   </si>
   <si>
+    <t>entreat</t>
+  </si>
+  <si>
+    <t>entreaties</t>
+  </si>
+  <si>
+    <t>entreats</t>
+  </si>
+  <si>
     <t>epilate</t>
   </si>
   <si>
@@ -664,15 +757,27 @@
     <t>erase</t>
   </si>
   <si>
+    <t>erased</t>
+  </si>
+  <si>
+    <t>eraser</t>
+  </si>
+  <si>
+    <t>erases</t>
+  </si>
+  <si>
+    <t>erasing</t>
+  </si>
+  <si>
     <t>ere</t>
   </si>
   <si>
+    <t>ered</t>
+  </si>
+  <si>
     <t>eres</t>
   </si>
   <si>
-    <t>erf</t>
-  </si>
-  <si>
     <t>erg</t>
   </si>
   <si>
@@ -688,24 +793,33 @@
     <t>erne</t>
   </si>
   <si>
+    <t>erned</t>
+  </si>
+  <si>
     <t>ernes</t>
   </si>
   <si>
     <t>erns</t>
   </si>
   <si>
-    <t>eros</t>
-  </si>
-  <si>
-    <t>erose</t>
-  </si>
-  <si>
     <t>ers</t>
   </si>
   <si>
+    <t>erses</t>
+  </si>
+  <si>
     <t>erst</t>
   </si>
   <si>
+    <t>eserine</t>
+  </si>
+  <si>
+    <t>eses</t>
+  </si>
+  <si>
+    <t>esile</t>
+  </si>
+  <si>
     <t>esne</t>
   </si>
   <si>
@@ -739,6 +853,18 @@
     <t>ester</t>
   </si>
   <si>
+    <t>estral</t>
+  </si>
+  <si>
+    <t>estreat</t>
+  </si>
+  <si>
+    <t>estreating</t>
+  </si>
+  <si>
+    <t>estreats</t>
+  </si>
+  <si>
     <t>eta</t>
   </si>
   <si>
@@ -790,138 +916,6 @@
     <t>etrangers</t>
   </si>
   <si>
-    <t>faa</t>
-  </si>
-  <si>
-    <t>faan</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>fane</t>
-  </si>
-  <si>
-    <t>fanes</t>
-  </si>
-  <si>
-    <t>fans</t>
-  </si>
-  <si>
-    <t>fap</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>fare</t>
-  </si>
-  <si>
-    <t>fares</t>
-  </si>
-  <si>
-    <t>faro</t>
-  </si>
-  <si>
-    <t>faros</t>
-  </si>
-  <si>
-    <t>fars</t>
-  </si>
-  <si>
-    <t>farse</t>
-  </si>
-  <si>
-    <t>fas</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>fasten</t>
-  </si>
-  <si>
-    <t>faster</t>
-  </si>
-  <si>
-    <t>foe</t>
-  </si>
-  <si>
-    <t>foes</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>fora</t>
-  </si>
-  <si>
-    <t>forane</t>
-  </si>
-  <si>
-    <t>fore</t>
-  </si>
-  <si>
-    <t>fores</t>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>foster</t>
-  </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>franc</t>
-  </si>
-  <si>
-    <t>frap</t>
-  </si>
-  <si>
-    <t>fras</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>frees</t>
-  </si>
-  <si>
-    <t>freest</t>
-  </si>
-  <si>
-    <t>freet</t>
-  </si>
-  <si>
-    <t>freets</t>
-  </si>
-  <si>
-    <t>fret</t>
-  </si>
-  <si>
-    <t>frets</t>
-  </si>
-  <si>
-    <t>fro</t>
-  </si>
-  <si>
-    <t>froe</t>
-  </si>
-  <si>
-    <t>froes</t>
-  </si>
-  <si>
-    <t>fros</t>
-  </si>
-  <si>
-    <t>frost</t>
-  </si>
-  <si>
     <t>gen</t>
   </si>
   <si>
@@ -1057,6 +1051,9 @@
     <t>graine</t>
   </si>
   <si>
+    <t>grained</t>
+  </si>
+  <si>
     <t>grainer</t>
   </si>
   <si>
@@ -1090,6 +1087,9 @@
     <t>grant</t>
   </si>
   <si>
+    <t>granted</t>
+  </si>
+  <si>
     <t>granter</t>
   </si>
   <si>
@@ -1129,6 +1129,9 @@
     <t>grasp</t>
   </si>
   <si>
+    <t>graste</t>
+  </si>
+  <si>
     <t>grat</t>
   </si>
   <si>
@@ -1156,6 +1159,27 @@
     <t>gratis</t>
   </si>
   <si>
+    <t>grease</t>
+  </si>
+  <si>
+    <t>greased</t>
+  </si>
+  <si>
+    <t>greaser</t>
+  </si>
+  <si>
+    <t>greases</t>
+  </si>
+  <si>
+    <t>greasier</t>
+  </si>
+  <si>
+    <t>greasies</t>
+  </si>
+  <si>
+    <t>greasiest</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
@@ -1168,9 +1192,30 @@
     <t>greater</t>
   </si>
   <si>
+    <t>greatest</t>
+  </si>
+  <si>
     <t>greats</t>
   </si>
   <si>
+    <t>gren</t>
+  </si>
+  <si>
+    <t>grens</t>
+  </si>
+  <si>
+    <t>ilea</t>
+  </si>
+  <si>
+    <t>inert</t>
+  </si>
+  <si>
+    <t>inerter</t>
+  </si>
+  <si>
+    <t>inerts</t>
+  </si>
+  <si>
     <t>ingrate</t>
   </si>
   <si>
@@ -1195,21 +1240,42 @@
     <t>inter</t>
   </si>
   <si>
+    <t>interest</t>
+  </si>
+  <si>
     <t>inters</t>
   </si>
   <si>
     <t>intra</t>
   </si>
   <si>
+    <t>intreat</t>
+  </si>
+  <si>
+    <t>intreats</t>
+  </si>
+  <si>
     <t>ire</t>
   </si>
   <si>
+    <t>ired</t>
+  </si>
+  <si>
     <t>ires</t>
   </si>
   <si>
     <t>isle</t>
   </si>
   <si>
+    <t>isna</t>
+  </si>
+  <si>
+    <t>isnae</t>
+  </si>
+  <si>
+    <t>istle</t>
+  </si>
+  <si>
     <t>ita</t>
   </si>
   <si>
@@ -1234,6 +1300,15 @@
     <t>lair</t>
   </si>
   <si>
+    <t>laird</t>
+  </si>
+  <si>
+    <t>lairds</t>
+  </si>
+  <si>
+    <t>laired</t>
+  </si>
+  <si>
     <t>lairs</t>
   </si>
   <si>
@@ -1306,6 +1381,21 @@
     <t>larges</t>
   </si>
   <si>
+    <t>larn</t>
+  </si>
+  <si>
+    <t>larned</t>
+  </si>
+  <si>
+    <t>larnier</t>
+  </si>
+  <si>
+    <t>larniest</t>
+  </si>
+  <si>
+    <t>larns</t>
+  </si>
+  <si>
     <t>lars</t>
   </si>
   <si>
@@ -1315,12 +1405,30 @@
     <t>lase</t>
   </si>
   <si>
+    <t>lased</t>
+  </si>
+  <si>
     <t>laser</t>
   </si>
   <si>
     <t>lasers</t>
   </si>
   <si>
+    <t>lases</t>
+  </si>
+  <si>
+    <t>lasing</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>laster</t>
+  </si>
+  <si>
     <t>lat</t>
   </si>
   <si>
@@ -1339,12 +1447,93 @@
     <t>laterise</t>
   </si>
   <si>
+    <t>laterised</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
     <t>lati</t>
   </si>
   <si>
     <t>lats</t>
   </si>
   <si>
+    <t>lea</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>leaned</t>
+  </si>
+  <si>
+    <t>leaner</t>
+  </si>
+  <si>
+    <t>leaners</t>
+  </si>
+  <si>
+    <t>leanest</t>
+  </si>
+  <si>
+    <t>leans</t>
+  </si>
+  <si>
+    <t>leant</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>lear</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>learner</t>
+  </si>
+  <si>
+    <t>learners</t>
+  </si>
+  <si>
+    <t>learns</t>
+  </si>
+  <si>
+    <t>learnt</t>
+  </si>
+  <si>
+    <t>leas</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>leased</t>
+  </si>
+  <si>
+    <t>leaser</t>
+  </si>
+  <si>
+    <t>leases</t>
+  </si>
+  <si>
+    <t>leasing</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>leat</t>
+  </si>
+  <si>
+    <t>leats</t>
+  </si>
+  <si>
     <t>lei</t>
   </si>
   <si>
@@ -1384,12 +1573,21 @@
     <t>lense</t>
   </si>
   <si>
+    <t>lensed</t>
+  </si>
+  <si>
+    <t>lenses</t>
+  </si>
+  <si>
     <t>lent</t>
   </si>
   <si>
     <t>lenti</t>
   </si>
   <si>
+    <t>lep</t>
+  </si>
+  <si>
     <t>lere</t>
   </si>
   <si>
@@ -1426,6 +1624,9 @@
     <t>lias</t>
   </si>
   <si>
+    <t>liases</t>
+  </si>
+  <si>
     <t>lie</t>
   </si>
   <si>
@@ -1456,6 +1657,15 @@
     <t>line</t>
   </si>
   <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>lineate</t>
+  </si>
+  <si>
+    <t>lined</t>
+  </si>
+  <si>
     <t>liner</t>
   </si>
   <si>
@@ -1489,6 +1699,9 @@
     <t>lint</t>
   </si>
   <si>
+    <t>linted</t>
+  </si>
+  <si>
     <t>linter</t>
   </si>
   <si>
@@ -1522,6 +1735,24 @@
     <t>lisente</t>
   </si>
   <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>listed</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>listener</t>
+  </si>
+  <si>
+    <t>lister</t>
+  </si>
+  <si>
+    <t>listers</t>
+  </si>
+  <si>
     <t>lit</t>
   </si>
   <si>
@@ -1564,9 +1795,6 @@
     <t>nails</t>
   </si>
   <si>
-    <t>naira</t>
-  </si>
-  <si>
     <t>nap</t>
   </si>
   <si>
@@ -1579,9 +1807,6 @@
     <t>naps</t>
   </si>
   <si>
-    <t>naras</t>
-  </si>
-  <si>
     <t>nare</t>
   </si>
   <si>
@@ -1603,10 +1828,31 @@
     <t>nats</t>
   </si>
   <si>
-    <t>naw</t>
-  </si>
-  <si>
-    <t>nee</t>
+    <t>neal</t>
+  </si>
+  <si>
+    <t>neap</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>neat</t>
+  </si>
+  <si>
+    <t>neater</t>
+  </si>
+  <si>
+    <t>neatest</t>
+  </si>
+  <si>
+    <t>neats</t>
+  </si>
+  <si>
+    <t>ned</t>
+  </si>
+  <si>
+    <t>neds</t>
   </si>
   <si>
     <t>neg</t>
@@ -1615,9 +1861,24 @@
     <t>negs</t>
   </si>
   <si>
+    <t>nelies</t>
+  </si>
+  <si>
     <t>nelis</t>
   </si>
   <si>
+    <t>nep</t>
+  </si>
+  <si>
+    <t>neral</t>
+  </si>
+  <si>
+    <t>nerd</t>
+  </si>
+  <si>
+    <t>nerds</t>
+  </si>
+  <si>
     <t>nereis</t>
   </si>
   <si>
@@ -1627,12 +1888,12 @@
     <t>nerites</t>
   </si>
   <si>
+    <t>nerts</t>
+  </si>
+  <si>
     <t>nest</t>
   </si>
   <si>
-    <t>nester</t>
-  </si>
-  <si>
     <t>net</t>
   </si>
   <si>
@@ -1645,12 +1906,6 @@
     <t>nets</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
     <t>nie</t>
   </si>
   <si>
@@ -1702,30 +1957,6 @@
     <t>nits</t>
   </si>
   <si>
-    <t>oes</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>ore</t>
-  </si>
-  <si>
-    <t>ores</t>
-  </si>
-  <si>
-    <t>orf</t>
-  </si>
-  <si>
-    <t>ors</t>
-  </si>
-  <si>
-    <t>osar</t>
-  </si>
-  <si>
-    <t>ose</t>
-  </si>
-  <si>
     <t>pail</t>
   </si>
   <si>
@@ -1735,12 +1966,18 @@
     <t>pain</t>
   </si>
   <si>
+    <t>pained</t>
+  </si>
+  <si>
     <t>pains</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
+    <t>painted</t>
+  </si>
+  <si>
     <t>painter</t>
   </si>
   <si>
@@ -1756,9 +1993,15 @@
     <t>paire</t>
   </si>
   <si>
+    <t>paired</t>
+  </si>
+  <si>
     <t>paires</t>
   </si>
   <si>
+    <t>pairest</t>
+  </si>
+  <si>
     <t>pairs</t>
   </si>
   <si>
@@ -1783,6 +2026,9 @@
     <t>palier</t>
   </si>
   <si>
+    <t>paliest</t>
+  </si>
+  <si>
     <t>paling</t>
   </si>
   <si>
@@ -1795,21 +2041,36 @@
     <t>palsier</t>
   </si>
   <si>
+    <t>palter</t>
+  </si>
+  <si>
+    <t>paltered</t>
+  </si>
+  <si>
+    <t>paltering</t>
+  </si>
+  <si>
+    <t>palters</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
     <t>pane</t>
   </si>
   <si>
-    <t>paneer</t>
-  </si>
-  <si>
-    <t>paneers</t>
+    <t>paned</t>
   </si>
   <si>
     <t>panel</t>
   </si>
   <si>
+    <t>panelised</t>
+  </si>
+  <si>
+    <t>panelist</t>
+  </si>
+  <si>
     <t>panels</t>
   </si>
   <si>
@@ -1831,9 +2092,15 @@
     <t>pans</t>
   </si>
   <si>
+    <t>pansies</t>
+  </si>
+  <si>
     <t>pant</t>
   </si>
   <si>
+    <t>panted</t>
+  </si>
+  <si>
     <t>panter</t>
   </si>
   <si>
@@ -1858,22 +2125,22 @@
     <t>par</t>
   </si>
   <si>
-    <t>para</t>
-  </si>
-  <si>
-    <t>paranete</t>
-  </si>
-  <si>
-    <t>paranetes</t>
-  </si>
-  <si>
     <t>pare</t>
   </si>
   <si>
-    <t>pareo</t>
-  </si>
-  <si>
-    <t>pareos</t>
+    <t>pareneses</t>
+  </si>
+  <si>
+    <t>parenesis</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>parented</t>
+  </si>
+  <si>
+    <t>parents</t>
   </si>
   <si>
     <t>pares</t>
@@ -1894,12 +2161,12 @@
     <t>pars</t>
   </si>
   <si>
-    <t>parse</t>
-  </si>
-  <si>
     <t>part</t>
   </si>
   <si>
+    <t>parted</t>
+  </si>
+  <si>
     <t>parter</t>
   </si>
   <si>
@@ -1936,19 +2203,13 @@
     <t>parts</t>
   </si>
   <si>
-    <t>parvo</t>
-  </si>
-  <si>
-    <t>parvos</t>
-  </si>
-  <si>
     <t>pas</t>
   </si>
   <si>
     <t>pase</t>
   </si>
   <si>
-    <t>paseo</t>
+    <t>pases</t>
   </si>
   <si>
     <t>past</t>
@@ -1957,12 +2218,12 @@
     <t>paste</t>
   </si>
   <si>
+    <t>pasted</t>
+  </si>
+  <si>
     <t>paster</t>
   </si>
   <si>
-    <t>pastern</t>
-  </si>
-  <si>
     <t>pat</t>
   </si>
   <si>
@@ -1990,6 +2251,9 @@
     <t>patine</t>
   </si>
   <si>
+    <t>patined</t>
+  </si>
+  <si>
     <t>patines</t>
   </si>
   <si>
@@ -1999,6 +2263,9 @@
     <t>pats</t>
   </si>
   <si>
+    <t>patsies</t>
+  </si>
+  <si>
     <t>pea</t>
   </si>
   <si>
@@ -2014,6 +2281,9 @@
     <t>pean</t>
   </si>
   <si>
+    <t>peaned</t>
+  </si>
+  <si>
     <t>peans</t>
   </si>
   <si>
@@ -2035,6 +2305,21 @@
     <t>peas</t>
   </si>
   <si>
+    <t>pease</t>
+  </si>
+  <si>
+    <t>peased</t>
+  </si>
+  <si>
+    <t>peasen</t>
+  </si>
+  <si>
+    <t>peases</t>
+  </si>
+  <si>
+    <t>peasing</t>
+  </si>
+  <si>
     <t>peat</t>
   </si>
   <si>
@@ -2044,9 +2329,123 @@
     <t>peatier</t>
   </si>
   <si>
+    <t>peatiest</t>
+  </si>
+  <si>
     <t>peats</t>
   </si>
   <si>
+    <t>pela</t>
+  </si>
+  <si>
+    <t>pelas</t>
+  </si>
+  <si>
+    <t>pelite</t>
+  </si>
+  <si>
+    <t>pelites</t>
+  </si>
+  <si>
+    <t>pelt</t>
+  </si>
+  <si>
+    <t>pelta</t>
+  </si>
+  <si>
+    <t>peltas</t>
+  </si>
+  <si>
+    <t>peltast</t>
+  </si>
+  <si>
+    <t>pelter</t>
+  </si>
+  <si>
+    <t>peltered</t>
+  </si>
+  <si>
+    <t>peltering</t>
+  </si>
+  <si>
+    <t>pelters</t>
+  </si>
+  <si>
+    <t>pelting</t>
+  </si>
+  <si>
+    <t>pelts</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>penal</t>
+  </si>
+  <si>
+    <t>penalise</t>
+  </si>
+  <si>
+    <t>penalised</t>
+  </si>
+  <si>
+    <t>penalises</t>
+  </si>
+  <si>
+    <t>penalties</t>
+  </si>
+  <si>
+    <t>penates</t>
+  </si>
+  <si>
+    <t>pene</t>
+  </si>
+  <si>
+    <t>pened</t>
+  </si>
+  <si>
+    <t>penes</t>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>penetrates</t>
+  </si>
+  <si>
+    <t>peni</t>
+  </si>
+  <si>
+    <t>penial</t>
+  </si>
+  <si>
+    <t>penie</t>
+  </si>
+  <si>
+    <t>penies</t>
+  </si>
+  <si>
+    <t>penis</t>
+  </si>
+  <si>
+    <t>penises</t>
+  </si>
+  <si>
+    <t>pens</t>
+  </si>
+  <si>
+    <t>pensil</t>
+  </si>
+  <si>
+    <t>penster</t>
+  </si>
+  <si>
+    <t>pent</t>
+  </si>
+  <si>
+    <t>pents</t>
+  </si>
+  <si>
     <t>per</t>
   </si>
   <si>
@@ -2056,6 +2455,12 @@
     <t>perais</t>
   </si>
   <si>
+    <t>pern</t>
+  </si>
+  <si>
+    <t>perns</t>
+  </si>
+  <si>
     <t>perst</t>
   </si>
   <si>
@@ -2137,9 +2542,6 @@
     <t>pias</t>
   </si>
   <si>
-    <t>piaster</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
@@ -2224,12 +2626,6 @@
     <t>pir</t>
   </si>
   <si>
-    <t>pirana</t>
-  </si>
-  <si>
-    <t>piranas</t>
-  </si>
-  <si>
     <t>pirn</t>
   </si>
   <si>
@@ -2260,9 +2656,15 @@
     <t>plain</t>
   </si>
   <si>
+    <t>plained</t>
+  </si>
+  <si>
     <t>plainer</t>
   </si>
   <si>
+    <t>plainest</t>
+  </si>
+  <si>
     <t>plains</t>
   </si>
   <si>
@@ -2272,6 +2674,15 @@
     <t>plaints</t>
   </si>
   <si>
+    <t>plaister</t>
+  </si>
+  <si>
+    <t>plaistered</t>
+  </si>
+  <si>
+    <t>plaisters</t>
+  </si>
+  <si>
     <t>plait</t>
   </si>
   <si>
@@ -2290,6 +2701,9 @@
     <t>plane</t>
   </si>
   <si>
+    <t>planed</t>
+  </si>
+  <si>
     <t>planer</t>
   </si>
   <si>
@@ -2311,6 +2725,9 @@
     <t>plant</t>
   </si>
   <si>
+    <t>planted</t>
+  </si>
+  <si>
     <t>planter</t>
   </si>
   <si>
@@ -2320,6 +2737,18 @@
     <t>plants</t>
   </si>
   <si>
+    <t>plast</t>
+  </si>
+  <si>
+    <t>plaste</t>
+  </si>
+  <si>
+    <t>plaster</t>
+  </si>
+  <si>
+    <t>plastering</t>
+  </si>
+  <si>
     <t>plat</t>
   </si>
   <si>
@@ -2347,6 +2776,9 @@
     <t>platies</t>
   </si>
   <si>
+    <t>platiest</t>
+  </si>
+  <si>
     <t>plating</t>
   </si>
   <si>
@@ -2356,9 +2788,51 @@
     <t>plats</t>
   </si>
   <si>
+    <t>plea</t>
+  </si>
+  <si>
+    <t>pleaing</t>
+  </si>
+  <si>
+    <t>pleas</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>pleaser</t>
+  </si>
+  <si>
+    <t>pleases</t>
+  </si>
+  <si>
+    <t>pleasing</t>
+  </si>
+  <si>
+    <t>pleat</t>
+  </si>
+  <si>
+    <t>pleater</t>
+  </si>
+  <si>
+    <t>pleaters</t>
+  </si>
+  <si>
+    <t>pleating</t>
+  </si>
+  <si>
+    <t>pleats</t>
+  </si>
+  <si>
     <t>plena</t>
   </si>
   <si>
+    <t>plenist</t>
+  </si>
+  <si>
     <t>pliant</t>
   </si>
   <si>
@@ -2380,69 +2854,6 @@
     <t>plings</t>
   </si>
   <si>
-    <t>prana</t>
-  </si>
-  <si>
-    <t>pranas</t>
-  </si>
-  <si>
-    <t>prase</t>
-  </si>
-  <si>
-    <t>prawn</t>
-  </si>
-  <si>
-    <t>prawns</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>pree</t>
-  </si>
-  <si>
-    <t>preen</t>
-  </si>
-  <si>
-    <t>preens</t>
-  </si>
-  <si>
-    <t>prees</t>
-  </si>
-  <si>
-    <t>presa</t>
-  </si>
-  <si>
-    <t>prese</t>
-  </si>
-  <si>
-    <t>preset</t>
-  </si>
-  <si>
-    <t>prest</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>prof</t>
-  </si>
-  <si>
-    <t>profane</t>
-  </si>
-  <si>
-    <t>profanes</t>
-  </si>
-  <si>
-    <t>pros</t>
-  </si>
-  <si>
-    <t>prose</t>
-  </si>
-  <si>
-    <t>prost</t>
-  </si>
-  <si>
     <t>rai</t>
   </si>
   <si>
@@ -2470,24 +2881,39 @@
     <t>raine</t>
   </si>
   <si>
+    <t>rained</t>
+  </si>
+  <si>
     <t>raines</t>
   </si>
   <si>
     <t>rains</t>
   </si>
   <si>
+    <t>raird</t>
+  </si>
+  <si>
+    <t>rairds</t>
+  </si>
+  <si>
     <t>rais</t>
   </si>
   <si>
     <t>raise</t>
   </si>
   <si>
+    <t>raised</t>
+  </si>
+  <si>
     <t>raiser</t>
   </si>
   <si>
     <t>raisers</t>
   </si>
   <si>
+    <t>raises</t>
+  </si>
+  <si>
     <t>rait</t>
   </si>
   <si>
@@ -2503,18 +2929,6 @@
     <t>ran</t>
   </si>
   <si>
-    <t>rana</t>
-  </si>
-  <si>
-    <t>ranas</t>
-  </si>
-  <si>
-    <t>ranee</t>
-  </si>
-  <si>
-    <t>ranees</t>
-  </si>
-  <si>
     <t>rang</t>
   </si>
   <si>
@@ -2539,6 +2953,9 @@
     <t>rant</t>
   </si>
   <si>
+    <t>ranted</t>
+  </si>
+  <si>
     <t>ranter</t>
   </si>
   <si>
@@ -2575,27 +2992,24 @@
     <t>raps</t>
   </si>
   <si>
-    <t>rare</t>
-  </si>
-  <si>
-    <t>raree</t>
-  </si>
-  <si>
-    <t>rares</t>
-  </si>
-  <si>
-    <t>rarest</t>
-  </si>
-  <si>
     <t>ras</t>
   </si>
   <si>
     <t>rase</t>
   </si>
   <si>
+    <t>rased</t>
+  </si>
+  <si>
     <t>raser</t>
   </si>
   <si>
+    <t>rases</t>
+  </si>
+  <si>
+    <t>rasing</t>
+  </si>
+  <si>
     <t>rasp</t>
   </si>
   <si>
@@ -2614,6 +3028,12 @@
     <t>raster</t>
   </si>
   <si>
+    <t>rastering</t>
+  </si>
+  <si>
+    <t>rasterise</t>
+  </si>
+  <si>
     <t>rat</t>
   </si>
   <si>
@@ -2641,24 +3061,24 @@
     <t>ratings</t>
   </si>
   <si>
+    <t>ratlin</t>
+  </si>
+  <si>
+    <t>ratline</t>
+  </si>
+  <si>
+    <t>ratlines</t>
+  </si>
+  <si>
+    <t>ratling</t>
+  </si>
+  <si>
+    <t>ratlins</t>
+  </si>
+  <si>
     <t>rats</t>
   </si>
   <si>
-    <t>raw</t>
-  </si>
-  <si>
-    <t>rawest</t>
-  </si>
-  <si>
-    <t>rawn</t>
-  </si>
-  <si>
-    <t>rawns</t>
-  </si>
-  <si>
-    <t>raws</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
@@ -2671,15 +3091,42 @@
     <t>realise</t>
   </si>
   <si>
+    <t>realised</t>
+  </si>
+  <si>
     <t>realiser</t>
   </si>
   <si>
     <t>realisers</t>
   </si>
   <si>
+    <t>realises</t>
+  </si>
+  <si>
+    <t>realist</t>
+  </si>
+  <si>
     <t>reals</t>
   </si>
   <si>
+    <t>realter</t>
+  </si>
+  <si>
+    <t>realtered</t>
+  </si>
+  <si>
+    <t>realtering</t>
+  </si>
+  <si>
+    <t>realters</t>
+  </si>
+  <si>
+    <t>realtie</t>
+  </si>
+  <si>
+    <t>realties</t>
+  </si>
+  <si>
     <t>rean</t>
   </si>
   <si>
@@ -2695,25 +3142,22 @@
     <t>reaps</t>
   </si>
   <si>
+    <t>reast</t>
+  </si>
+  <si>
+    <t>reasted</t>
+  </si>
+  <si>
     <t>reate</t>
   </si>
   <si>
     <t>reates</t>
   </si>
   <si>
-    <t>ree</t>
-  </si>
-  <si>
-    <t>reen</t>
-  </si>
-  <si>
-    <t>reens</t>
-  </si>
-  <si>
-    <t>rees</t>
-  </si>
-  <si>
-    <t>reest</t>
+    <t>red</t>
+  </si>
+  <si>
+    <t>reds</t>
   </si>
   <si>
     <t>reg</t>
@@ -2752,6 +3196,9 @@
     <t>rein</t>
   </si>
   <si>
+    <t>reined</t>
+  </si>
+  <si>
     <t>reins</t>
   </si>
   <si>
@@ -2764,6 +3211,12 @@
     <t>reis</t>
   </si>
   <si>
+    <t>reist</t>
+  </si>
+  <si>
+    <t>reisted</t>
+  </si>
+  <si>
     <t>reiter</t>
   </si>
   <si>
@@ -2797,12 +3250,33 @@
     <t>reliant</t>
   </si>
   <si>
+    <t>relie</t>
+  </si>
+  <si>
+    <t>relier</t>
+  </si>
+  <si>
+    <t>reliers</t>
+  </si>
+  <si>
+    <t>relies</t>
+  </si>
+  <si>
     <t>reline</t>
   </si>
   <si>
+    <t>relined</t>
+  </si>
+  <si>
     <t>relines</t>
   </si>
   <si>
+    <t>relist</t>
+  </si>
+  <si>
+    <t>relisted</t>
+  </si>
+  <si>
     <t>relit</t>
   </si>
   <si>
@@ -2818,6 +3292,9 @@
     <t>renal</t>
   </si>
   <si>
+    <t>renest</t>
+  </si>
+  <si>
     <t>renies</t>
   </si>
   <si>
@@ -2836,6 +3313,9 @@
     <t>rente</t>
   </si>
   <si>
+    <t>rented</t>
+  </si>
+  <si>
     <t>renter</t>
   </si>
   <si>
@@ -2848,24 +3328,24 @@
     <t>rents</t>
   </si>
   <si>
-    <t>reo</t>
-  </si>
-  <si>
-    <t>reos</t>
-  </si>
-  <si>
     <t>rep</t>
   </si>
   <si>
     <t>repaint</t>
   </si>
   <si>
+    <t>repainted</t>
+  </si>
+  <si>
     <t>repaints</t>
   </si>
   <si>
     <t>repair</t>
   </si>
   <si>
+    <t>repaired</t>
+  </si>
+  <si>
     <t>repairs</t>
   </si>
   <si>
@@ -2875,6 +3355,12 @@
     <t>repanels</t>
   </si>
   <si>
+    <t>repast</t>
+  </si>
+  <si>
+    <t>repasted</t>
+  </si>
+  <si>
     <t>repin</t>
   </si>
   <si>
@@ -2905,9 +3391,18 @@
     <t>replant</t>
   </si>
   <si>
+    <t>replanted</t>
+  </si>
+  <si>
     <t>replants</t>
   </si>
   <si>
+    <t>replaster</t>
+  </si>
+  <si>
+    <t>replastering</t>
+  </si>
+  <si>
     <t>replate</t>
   </si>
   <si>
@@ -2947,13 +3442,16 @@
     <t>resat</t>
   </si>
   <si>
+    <t>resent</t>
+  </si>
+  <si>
+    <t>reses</t>
+  </si>
+  <si>
     <t>reset</t>
   </si>
   <si>
-    <t>resew</t>
-  </si>
-  <si>
-    <t>resewn</t>
+    <t>resets</t>
   </si>
   <si>
     <t>resiant</t>
@@ -2962,6 +3460,9 @@
     <t>resiants</t>
   </si>
   <si>
+    <t>resile</t>
+  </si>
+  <si>
     <t>resin</t>
   </si>
   <si>
@@ -2971,9 +3472,24 @@
     <t>resinates</t>
   </si>
   <si>
+    <t>resined</t>
+  </si>
+  <si>
+    <t>resiner</t>
+  </si>
+  <si>
     <t>resins</t>
   </si>
   <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>resistant</t>
+  </si>
+  <si>
+    <t>resisted</t>
+  </si>
+  <si>
     <t>resit</t>
   </si>
   <si>
@@ -3016,6 +3532,27 @@
     <t>rest</t>
   </si>
   <si>
+    <t>restart</t>
+  </si>
+  <si>
+    <t>restarted</t>
+  </si>
+  <si>
+    <t>restarts</t>
+  </si>
+  <si>
+    <t>rested</t>
+  </si>
+  <si>
+    <t>resting</t>
+  </si>
+  <si>
+    <t>restrain</t>
+  </si>
+  <si>
+    <t>restrained</t>
+  </si>
+  <si>
     <t>ret</t>
   </si>
   <si>
@@ -3034,6 +3571,9 @@
     <t>retain</t>
   </si>
   <si>
+    <t>retained</t>
+  </si>
+  <si>
     <t>retainer</t>
   </si>
   <si>
@@ -3052,6 +3592,12 @@
     <t>retaping</t>
   </si>
   <si>
+    <t>retaste</t>
+  </si>
+  <si>
+    <t>retasted</t>
+  </si>
+  <si>
     <t>rete</t>
   </si>
   <si>
@@ -3109,6 +3655,15 @@
     <t>retines</t>
   </si>
   <si>
+    <t>retint</t>
+  </si>
+  <si>
+    <t>retinted</t>
+  </si>
+  <si>
+    <t>retints</t>
+  </si>
+  <si>
     <t>retire</t>
   </si>
   <si>
@@ -3121,12 +3676,48 @@
     <t>retrains</t>
   </si>
   <si>
+    <t>retrait</t>
+  </si>
+  <si>
+    <t>retraite</t>
+  </si>
+  <si>
+    <t>retraites</t>
+  </si>
+  <si>
+    <t>retraits</t>
+  </si>
+  <si>
     <t>retral</t>
   </si>
   <si>
+    <t>retrate</t>
+  </si>
+  <si>
+    <t>retrates</t>
+  </si>
+  <si>
+    <t>retrating</t>
+  </si>
+  <si>
+    <t>retreat</t>
+  </si>
+  <si>
+    <t>retreating</t>
+  </si>
+  <si>
+    <t>retreats</t>
+  </si>
+  <si>
     <t>rets</t>
   </si>
   <si>
+    <t>retsina</t>
+  </si>
+  <si>
+    <t>retsinas</t>
+  </si>
+  <si>
     <t>ria</t>
   </si>
   <si>
@@ -3178,6 +3769,12 @@
     <t>rinse</t>
   </si>
   <si>
+    <t>rinsed</t>
+  </si>
+  <si>
+    <t>rinses</t>
+  </si>
+  <si>
     <t>rip</t>
   </si>
   <si>
@@ -3202,6 +3799,12 @@
     <t>risen</t>
   </si>
   <si>
+    <t>rises</t>
+  </si>
+  <si>
+    <t>ristra</t>
+  </si>
+  <si>
     <t>rit</t>
   </si>
   <si>
@@ -3214,21 +3817,6 @@
     <t>rits</t>
   </si>
   <si>
-    <t>roe</t>
-  </si>
-  <si>
-    <t>roes</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>roset</t>
-  </si>
-  <si>
-    <t>rost</t>
-  </si>
-  <si>
     <t>sae</t>
   </si>
   <si>
@@ -3259,30 +3847,48 @@
     <t>saine</t>
   </si>
   <si>
+    <t>sained</t>
+  </si>
+  <si>
     <t>sains</t>
   </si>
   <si>
     <t>saint</t>
   </si>
   <si>
+    <t>sainted</t>
+  </si>
+  <si>
     <t>saints</t>
   </si>
   <si>
     <t>sair</t>
   </si>
   <si>
+    <t>saired</t>
+  </si>
+  <si>
+    <t>sairest</t>
+  </si>
+  <si>
     <t>sairs</t>
   </si>
   <si>
     <t>sais</t>
   </si>
   <si>
+    <t>saist</t>
+  </si>
+  <si>
     <t>sal</t>
   </si>
   <si>
     <t>sale</t>
   </si>
   <si>
+    <t>salep</t>
+  </si>
+  <si>
     <t>salering</t>
   </si>
   <si>
@@ -3316,12 +3922,45 @@
     <t>salse</t>
   </si>
   <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>salter</t>
+  </si>
+  <si>
+    <t>saltie</t>
+  </si>
+  <si>
+    <t>saltier</t>
+  </si>
+  <si>
+    <t>salties</t>
+  </si>
+  <si>
+    <t>saltine</t>
+  </si>
+  <si>
+    <t>salting</t>
+  </si>
+  <si>
+    <t>saltire</t>
+  </si>
+  <si>
+    <t>saltires</t>
+  </si>
+  <si>
+    <t>salts</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
     <t>sane</t>
   </si>
   <si>
+    <t>saned</t>
+  </si>
+  <si>
     <t>saner</t>
   </si>
   <si>
@@ -3379,19 +4018,16 @@
     <t>sar</t>
   </si>
   <si>
-    <t>saran</t>
-  </si>
-  <si>
-    <t>saree</t>
-  </si>
-  <si>
     <t>sarge</t>
   </si>
   <si>
     <t>sarges</t>
   </si>
   <si>
-    <t>sari</t>
+    <t>sarnie</t>
+  </si>
+  <si>
+    <t>sarnies</t>
   </si>
   <si>
     <t>sars</t>
@@ -3412,6 +4048,12 @@
     <t>satin</t>
   </si>
   <si>
+    <t>satined</t>
+  </si>
+  <si>
+    <t>satinet</t>
+  </si>
+  <si>
     <t>sating</t>
   </si>
   <si>
@@ -3484,13 +4126,7 @@
     <t>seats</t>
   </si>
   <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>seen</t>
-  </si>
-  <si>
-    <t>seer</t>
+    <t>sed</t>
   </si>
   <si>
     <t>seg</t>
@@ -3514,6 +4150,9 @@
     <t>seine</t>
   </si>
   <si>
+    <t>seined</t>
+  </si>
+  <si>
     <t>seiner</t>
   </si>
   <si>
@@ -3529,6 +4168,18 @@
     <t>seirs</t>
   </si>
   <si>
+    <t>seis</t>
+  </si>
+  <si>
+    <t>seise</t>
+  </si>
+  <si>
+    <t>seised</t>
+  </si>
+  <si>
+    <t>seiser</t>
+  </si>
+  <si>
     <t>seitan</t>
   </si>
   <si>
@@ -3628,6 +4279,9 @@
     <t>sere</t>
   </si>
   <si>
+    <t>sered</t>
+  </si>
+  <si>
     <t>serein</t>
   </si>
   <si>
@@ -3637,10 +4291,16 @@
     <t>serenates</t>
   </si>
   <si>
+    <t>serene</t>
+  </si>
+  <si>
+    <t>serener</t>
+  </si>
+  <si>
     <t>seres</t>
   </si>
   <si>
-    <t>serf</t>
+    <t>serest</t>
   </si>
   <si>
     <t>serge</t>
@@ -3688,7 +4348,13 @@
     <t>sers</t>
   </si>
   <si>
-    <t>servo</t>
+    <t>sese</t>
+  </si>
+  <si>
+    <t>sestina</t>
+  </si>
+  <si>
+    <t>sestine</t>
   </si>
   <si>
     <t>set</t>
@@ -3703,21 +4369,15 @@
     <t>setal</t>
   </si>
   <si>
+    <t>setline</t>
+  </si>
+  <si>
+    <t>setlines</t>
+  </si>
+  <si>
     <t>sets</t>
   </si>
   <si>
-    <t>sew</t>
-  </si>
-  <si>
-    <t>sewan</t>
-  </si>
-  <si>
-    <t>sewar</t>
-  </si>
-  <si>
-    <t>sewn</t>
-  </si>
-  <si>
     <t>sial</t>
   </si>
   <si>
@@ -3733,6 +4393,12 @@
     <t>sients</t>
   </si>
   <si>
+    <t>sies</t>
+  </si>
+  <si>
+    <t>siesta</t>
+  </si>
+  <si>
     <t>silane</t>
   </si>
   <si>
@@ -3769,12 +4435,21 @@
     <t>silers</t>
   </si>
   <si>
+    <t>silt</t>
+  </si>
+  <si>
+    <t>silts</t>
+  </si>
+  <si>
     <t>sin</t>
   </si>
   <si>
     <t>sine</t>
   </si>
   <si>
+    <t>sined</t>
+  </si>
+  <si>
     <t>sines</t>
   </si>
   <si>
@@ -3823,6 +4498,9 @@
     <t>sire</t>
   </si>
   <si>
+    <t>sired</t>
+  </si>
+  <si>
     <t>siren</t>
   </si>
   <si>
@@ -3835,6 +4513,27 @@
     <t>sirs</t>
   </si>
   <si>
+    <t>sis</t>
+  </si>
+  <si>
+    <t>sisal</t>
+  </si>
+  <si>
+    <t>sist</t>
+  </si>
+  <si>
+    <t>sisted</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>sistered</t>
+  </si>
+  <si>
+    <t>sistra</t>
+  </si>
+  <si>
     <t>sit</t>
   </si>
   <si>
@@ -4009,19 +4708,13 @@
     <t>snares</t>
   </si>
   <si>
-    <t>snarf</t>
-  </si>
-  <si>
     <t>snars</t>
   </si>
   <si>
-    <t>snaw</t>
-  </si>
-  <si>
-    <t>snee</t>
-  </si>
-  <si>
-    <t>sneer</t>
+    <t>sneap</t>
+  </si>
+  <si>
+    <t>sned</t>
   </si>
   <si>
     <t>snies</t>
@@ -4051,30 +4744,6 @@
     <t>snits</t>
   </si>
   <si>
-    <t>sofa</t>
-  </si>
-  <si>
-    <t>sofar</t>
-  </si>
-  <si>
-    <t>sora</t>
-  </si>
-  <si>
-    <t>sore</t>
-  </si>
-  <si>
-    <t>soree</t>
-  </si>
-  <si>
-    <t>sorn</t>
-  </si>
-  <si>
-    <t>sov</t>
-  </si>
-  <si>
-    <t>sovran</t>
-  </si>
-  <si>
     <t>spa</t>
   </si>
   <si>
@@ -4366,6 +5035,9 @@
     <t>stain</t>
   </si>
   <si>
+    <t>stained</t>
+  </si>
+  <si>
     <t>stainer</t>
   </si>
   <si>
@@ -4378,6 +5050,9 @@
     <t>stair</t>
   </si>
   <si>
+    <t>staired</t>
+  </si>
+  <si>
     <t>stairs</t>
   </si>
   <si>
@@ -4396,6 +5071,9 @@
     <t>stane</t>
   </si>
   <si>
+    <t>staned</t>
+  </si>
+  <si>
     <t>stanes</t>
   </si>
   <si>
@@ -4441,6 +5119,36 @@
     <t>stares</t>
   </si>
   <si>
+    <t>starn</t>
+  </si>
+  <si>
+    <t>starned</t>
+  </si>
+  <si>
+    <t>starnie</t>
+  </si>
+  <si>
+    <t>starnies</t>
+  </si>
+  <si>
+    <t>starns</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>starter</t>
+  </si>
+  <si>
+    <t>starters</t>
+  </si>
+  <si>
+    <t>starts</t>
+  </si>
+  <si>
     <t>steal</t>
   </si>
   <si>
@@ -4477,10 +5185,19 @@
     <t>stear</t>
   </si>
   <si>
-    <t>steen</t>
-  </si>
-  <si>
-    <t>steer</t>
+    <t>sted</t>
+  </si>
+  <si>
+    <t>steil</t>
+  </si>
+  <si>
+    <t>stein</t>
+  </si>
+  <si>
+    <t>steined</t>
+  </si>
+  <si>
+    <t>steins</t>
   </si>
   <si>
     <t>sten</t>
@@ -4501,6 +5218,12 @@
     <t>steres</t>
   </si>
   <si>
+    <t>sterilant</t>
+  </si>
+  <si>
+    <t>sterilants</t>
+  </si>
+  <si>
     <t>sterile</t>
   </si>
   <si>
@@ -4516,9 +5239,6 @@
     <t>sterns</t>
   </si>
   <si>
-    <t>stew</t>
-  </si>
-  <si>
     <t>stie</t>
   </si>
   <si>
@@ -4540,6 +5260,21 @@
     <t>stingers</t>
   </si>
   <si>
+    <t>stint</t>
+  </si>
+  <si>
+    <t>stinted</t>
+  </si>
+  <si>
+    <t>stinter</t>
+  </si>
+  <si>
+    <t>stinters</t>
+  </si>
+  <si>
+    <t>stints</t>
+  </si>
+  <si>
     <t>stipa</t>
   </si>
   <si>
@@ -4558,6 +5293,9 @@
     <t>stire</t>
   </si>
   <si>
+    <t>stired</t>
+  </si>
+  <si>
     <t>stires</t>
   </si>
   <si>
@@ -4573,6 +5311,9 @@
     <t>strain</t>
   </si>
   <si>
+    <t>strained</t>
+  </si>
+  <si>
     <t>strainer</t>
   </si>
   <si>
@@ -4582,6 +5323,15 @@
     <t>strains</t>
   </si>
   <si>
+    <t>strait</t>
+  </si>
+  <si>
+    <t>straiter</t>
+  </si>
+  <si>
+    <t>straits</t>
+  </si>
+  <si>
     <t>strang</t>
   </si>
   <si>
@@ -4609,27 +5359,24 @@
     <t>straps</t>
   </si>
   <si>
+    <t>strati</t>
+  </si>
+  <si>
+    <t>strene</t>
+  </si>
+  <si>
     <t>strep</t>
   </si>
   <si>
     <t>streps</t>
   </si>
   <si>
-    <t>swan</t>
-  </si>
-  <si>
-    <t>swee</t>
-  </si>
-  <si>
-    <t>sweer</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
     <t>tae</t>
   </si>
   <si>
+    <t>tael</t>
+  </si>
+  <si>
     <t>taes</t>
   </si>
   <si>
@@ -4654,12 +5401,30 @@
     <t>tains</t>
   </si>
   <si>
+    <t>taint</t>
+  </si>
+  <si>
+    <t>tainted</t>
+  </si>
+  <si>
+    <t>taints</t>
+  </si>
+  <si>
     <t>tais</t>
   </si>
   <si>
     <t>tale</t>
   </si>
   <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>talented</t>
+  </si>
+  <si>
+    <t>talents</t>
+  </si>
+  <si>
     <t>taler</t>
   </si>
   <si>
@@ -4687,15 +5452,30 @@
     <t>tangs</t>
   </si>
   <si>
+    <t>tanist</t>
+  </si>
+  <si>
     <t>tans</t>
   </si>
   <si>
+    <t>tansies</t>
+  </si>
+  <si>
     <t>tap</t>
   </si>
   <si>
     <t>tape</t>
   </si>
   <si>
+    <t>tapeline</t>
+  </si>
+  <si>
+    <t>tapelines</t>
+  </si>
+  <si>
+    <t>tapen</t>
+  </si>
+  <si>
     <t>taper</t>
   </si>
   <si>
@@ -4735,18 +5515,54 @@
     <t>targes</t>
   </si>
   <si>
+    <t>tarn</t>
+  </si>
+  <si>
+    <t>tarns</t>
+  </si>
+  <si>
     <t>tars</t>
   </si>
   <si>
+    <t>tart</t>
+  </si>
+  <si>
+    <t>tarted</t>
+  </si>
+  <si>
+    <t>tarter</t>
+  </si>
+  <si>
+    <t>tarts</t>
+  </si>
+  <si>
     <t>tas</t>
   </si>
   <si>
+    <t>tased</t>
+  </si>
+  <si>
     <t>taser</t>
   </si>
   <si>
+    <t>tasered</t>
+  </si>
+  <si>
+    <t>tasering</t>
+  </si>
+  <si>
     <t>tasers</t>
   </si>
   <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>tasted</t>
+  </si>
+  <si>
+    <t>taster</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
@@ -4768,22 +5584,10 @@
     <t>teas</t>
   </si>
   <si>
-    <t>tee</t>
-  </si>
-  <si>
-    <t>teen</t>
-  </si>
-  <si>
-    <t>teens</t>
-  </si>
-  <si>
-    <t>teer</t>
-  </si>
-  <si>
-    <t>teers</t>
-  </si>
-  <si>
-    <t>tees</t>
+    <t>ted</t>
+  </si>
+  <si>
+    <t>teds</t>
   </si>
   <si>
     <t>teg</t>
@@ -4792,6 +5596,9 @@
     <t>tegs</t>
   </si>
   <si>
+    <t>teil</t>
+  </si>
+  <si>
     <t>ten</t>
   </si>
   <si>
@@ -4816,6 +5623,9 @@
     <t>tenias</t>
   </si>
   <si>
+    <t>teniases</t>
+  </si>
+  <si>
     <t>tens</t>
   </si>
   <si>
@@ -4825,7 +5635,13 @@
     <t>tenser</t>
   </si>
   <si>
-    <t>tensor</t>
+    <t>tenses</t>
+  </si>
+  <si>
+    <t>tensest</t>
+  </si>
+  <si>
+    <t>tensile</t>
   </si>
   <si>
     <t>tepa</t>
@@ -4852,9 +5668,6 @@
     <t>teres</t>
   </si>
   <si>
-    <t>terf</t>
-  </si>
-  <si>
     <t>tern</t>
   </si>
   <si>
@@ -4873,13 +5686,22 @@
     <t>terse</t>
   </si>
   <si>
+    <t>tersest</t>
+  </si>
+  <si>
     <t>tes</t>
   </si>
   <si>
-    <t>tew</t>
-  </si>
-  <si>
-    <t>tews</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>tester</t>
   </si>
   <si>
     <t>tiar</t>
@@ -4894,6 +5716,9 @@
     <t>tier</t>
   </si>
   <si>
+    <t>tiered</t>
+  </si>
+  <si>
     <t>tiers</t>
   </si>
   <si>
@@ -4924,6 +5749,18 @@
     <t>tine</t>
   </si>
   <si>
+    <t>tinea</t>
+  </si>
+  <si>
+    <t>tineal</t>
+  </si>
+  <si>
+    <t>tineas</t>
+  </si>
+  <si>
+    <t>tined</t>
+  </si>
+  <si>
     <t>tines</t>
   </si>
   <si>
@@ -4942,6 +5779,21 @@
     <t>tins</t>
   </si>
   <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>tinted</t>
+  </si>
+  <si>
+    <t>tinter</t>
+  </si>
+  <si>
+    <t>tinters</t>
+  </si>
+  <si>
+    <t>tints</t>
+  </si>
+  <si>
     <t>tip</t>
   </si>
   <si>
@@ -4951,12 +5803,18 @@
     <t>tire</t>
   </si>
   <si>
+    <t>tired</t>
+  </si>
+  <si>
     <t>tires</t>
   </si>
   <si>
     <t>tis</t>
   </si>
   <si>
+    <t>tisane</t>
+  </si>
+  <si>
     <t>trail</t>
   </si>
   <si>
@@ -4972,6 +5830,9 @@
     <t>train</t>
   </si>
   <si>
+    <t>trained</t>
+  </si>
+  <si>
     <t>trainer</t>
   </si>
   <si>
@@ -4984,12 +5845,33 @@
     <t>traipse</t>
   </si>
   <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>traits</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
     <t>transe</t>
   </si>
   <si>
+    <t>transes</t>
+  </si>
+  <si>
+    <t>transire</t>
+  </si>
+  <si>
+    <t>transires</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>transits</t>
+  </si>
+  <si>
     <t>trap</t>
   </si>
   <si>
@@ -5011,6 +5893,45 @@
     <t>traps</t>
   </si>
   <si>
+    <t>trat</t>
+  </si>
+  <si>
+    <t>trats</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>treater</t>
+  </si>
+  <si>
+    <t>treaters</t>
+  </si>
+  <si>
+    <t>treaties</t>
+  </si>
+  <si>
+    <t>treating</t>
+  </si>
+  <si>
+    <t>treatise</t>
+  </si>
+  <si>
+    <t>treatises</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>trenail</t>
+  </si>
+  <si>
+    <t>trenise</t>
+  </si>
+  <si>
+    <t>trenises</t>
+  </si>
+  <si>
     <t>trepan</t>
   </si>
   <si>
@@ -5027,84 +5948,6 @@
   </si>
   <si>
     <t>tsar</t>
-  </si>
-  <si>
-    <t>voe</t>
-  </si>
-  <si>
-    <t>voes</t>
-  </si>
-  <si>
-    <t>vor</t>
-  </si>
-  <si>
-    <t>vors</t>
-  </si>
-  <si>
-    <t>wan</t>
-  </si>
-  <si>
-    <t>wane</t>
-  </si>
-  <si>
-    <t>wanes</t>
-  </si>
-  <si>
-    <t>wans</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warn</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>warp</t>
-  </si>
-  <si>
-    <t>wee</t>
-  </si>
-  <si>
-    <t>weer</t>
-  </si>
-  <si>
-    <t>wees</t>
-  </si>
-  <si>
-    <t>weest</t>
-  </si>
-  <si>
-    <t>weet</t>
-  </si>
-  <si>
-    <t>weets</t>
-  </si>
-  <si>
-    <t>wen</t>
-  </si>
-  <si>
-    <t>wena</t>
-  </si>
-  <si>
-    <t>wens</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>wester</t>
-  </si>
-  <si>
-    <t>western</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>wets</t>
   </si>
 </sst>
 </file>
@@ -13674,274 +14517,3437 @@
       </c>
     </row>
     <row r="1699">
-      <c s="2" r="A1699"/>
+      <c t="s" s="1" r="A1699">
+        <v>1698</v>
+      </c>
     </row>
     <row r="1700">
-      <c s="2" r="A1700"/>
+      <c t="s" s="1" r="A1700">
+        <v>1699</v>
+      </c>
     </row>
     <row r="1701">
-      <c s="2" r="A1701"/>
+      <c t="s" s="1" r="A1701">
+        <v>1700</v>
+      </c>
     </row>
     <row r="1702">
-      <c s="2" r="A1702"/>
+      <c t="s" s="1" r="A1702">
+        <v>1701</v>
+      </c>
     </row>
     <row r="1703">
-      <c s="2" r="A1703"/>
+      <c t="s" s="1" r="A1703">
+        <v>1702</v>
+      </c>
     </row>
     <row r="1704">
-      <c s="2" r="A1704"/>
+      <c t="s" s="1" r="A1704">
+        <v>1703</v>
+      </c>
     </row>
     <row r="1705">
-      <c s="2" r="A1705"/>
+      <c t="s" s="1" r="A1705">
+        <v>1704</v>
+      </c>
     </row>
     <row r="1706">
-      <c s="2" r="A1706"/>
+      <c t="s" s="1" r="A1706">
+        <v>1705</v>
+      </c>
     </row>
     <row r="1707">
-      <c s="2" r="A1707"/>
+      <c t="s" s="1" r="A1707">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1708">
-      <c s="2" r="A1708"/>
+      <c t="s" s="1" r="A1708">
+        <v>1707</v>
+      </c>
     </row>
     <row r="1709">
-      <c s="2" r="A1709"/>
+      <c t="s" s="1" r="A1709">
+        <v>1708</v>
+      </c>
     </row>
     <row r="1710">
-      <c s="2" r="A1710"/>
+      <c t="s" s="1" r="A1710">
+        <v>1709</v>
+      </c>
     </row>
     <row r="1711">
-      <c s="2" r="A1711"/>
+      <c t="s" s="1" r="A1711">
+        <v>1710</v>
+      </c>
     </row>
     <row r="1712">
-      <c s="2" r="A1712"/>
+      <c t="s" s="1" r="A1712">
+        <v>1711</v>
+      </c>
     </row>
     <row r="1713">
-      <c s="2" r="A1713"/>
+      <c t="s" s="1" r="A1713">
+        <v>1712</v>
+      </c>
     </row>
     <row r="1714">
-      <c s="2" r="A1714"/>
+      <c t="s" s="1" r="A1714">
+        <v>1713</v>
+      </c>
     </row>
     <row r="1715">
-      <c s="2" r="A1715"/>
+      <c t="s" s="1" r="A1715">
+        <v>1714</v>
+      </c>
     </row>
     <row r="1716">
-      <c s="2" r="A1716"/>
+      <c t="s" s="1" r="A1716">
+        <v>1715</v>
+      </c>
     </row>
     <row r="1717">
-      <c s="2" r="A1717"/>
+      <c t="s" s="1" r="A1717">
+        <v>1716</v>
+      </c>
     </row>
     <row r="1718">
-      <c s="2" r="A1718"/>
+      <c t="s" s="1" r="A1718">
+        <v>1717</v>
+      </c>
     </row>
     <row r="1719">
-      <c s="2" r="A1719"/>
+      <c t="s" s="1" r="A1719">
+        <v>1718</v>
+      </c>
     </row>
     <row r="1720">
-      <c s="2" r="A1720"/>
+      <c t="s" s="1" r="A1720">
+        <v>1719</v>
+      </c>
     </row>
     <row r="1721">
-      <c s="2" r="A1721"/>
+      <c t="s" s="1" r="A1721">
+        <v>1720</v>
+      </c>
     </row>
     <row r="1722">
-      <c s="2" r="A1722"/>
+      <c t="s" s="1" r="A1722">
+        <v>1721</v>
+      </c>
     </row>
     <row r="1723">
-      <c s="2" r="A1723"/>
+      <c t="s" s="1" r="A1723">
+        <v>1722</v>
+      </c>
     </row>
     <row r="1724">
-      <c s="2" r="A1724"/>
+      <c t="s" s="1" r="A1724">
+        <v>1723</v>
+      </c>
     </row>
     <row r="1725">
-      <c s="2" r="A1725"/>
+      <c t="s" s="1" r="A1725">
+        <v>1724</v>
+      </c>
     </row>
     <row r="1726">
-      <c s="2" r="A1726"/>
+      <c t="s" s="1" r="A1726">
+        <v>1725</v>
+      </c>
     </row>
     <row r="1727">
-      <c s="2" r="A1727"/>
+      <c t="s" s="1" r="A1727">
+        <v>1726</v>
+      </c>
     </row>
     <row r="1728">
-      <c s="2" r="A1728"/>
+      <c t="s" s="1" r="A1728">
+        <v>1727</v>
+      </c>
     </row>
     <row r="1729">
-      <c s="2" r="A1729"/>
+      <c t="s" s="1" r="A1729">
+        <v>1728</v>
+      </c>
     </row>
     <row r="1730">
-      <c s="2" r="A1730"/>
+      <c t="s" s="1" r="A1730">
+        <v>1729</v>
+      </c>
     </row>
     <row r="1731">
-      <c s="2" r="A1731"/>
+      <c t="s" s="1" r="A1731">
+        <v>1730</v>
+      </c>
     </row>
     <row r="1732">
-      <c s="2" r="A1732"/>
+      <c t="s" s="1" r="A1732">
+        <v>1731</v>
+      </c>
     </row>
     <row r="1733">
-      <c s="2" r="A1733"/>
+      <c t="s" s="1" r="A1733">
+        <v>1732</v>
+      </c>
     </row>
     <row r="1734">
-      <c s="2" r="A1734"/>
+      <c t="s" s="1" r="A1734">
+        <v>1733</v>
+      </c>
     </row>
     <row r="1735">
-      <c s="2" r="A1735"/>
+      <c t="s" s="1" r="A1735">
+        <v>1734</v>
+      </c>
     </row>
     <row r="1736">
-      <c s="2" r="A1736"/>
+      <c t="s" s="1" r="A1736">
+        <v>1735</v>
+      </c>
     </row>
     <row r="1737">
-      <c s="2" r="A1737"/>
+      <c t="s" s="1" r="A1737">
+        <v>1736</v>
+      </c>
     </row>
     <row r="1738">
-      <c s="2" r="A1738"/>
+      <c t="s" s="1" r="A1738">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1739">
-      <c s="2" r="A1739"/>
+      <c t="s" s="1" r="A1739">
+        <v>1738</v>
+      </c>
     </row>
     <row r="1740">
-      <c s="2" r="A1740"/>
+      <c t="s" s="1" r="A1740">
+        <v>1739</v>
+      </c>
     </row>
     <row r="1741">
-      <c s="2" r="A1741"/>
+      <c t="s" s="1" r="A1741">
+        <v>1740</v>
+      </c>
     </row>
     <row r="1742">
-      <c s="2" r="A1742"/>
+      <c t="s" s="1" r="A1742">
+        <v>1741</v>
+      </c>
     </row>
     <row r="1743">
-      <c s="2" r="A1743"/>
+      <c t="s" s="1" r="A1743">
+        <v>1742</v>
+      </c>
     </row>
     <row r="1744">
-      <c s="2" r="A1744"/>
+      <c t="s" s="1" r="A1744">
+        <v>1743</v>
+      </c>
     </row>
     <row r="1745">
-      <c s="2" r="A1745"/>
+      <c t="s" s="1" r="A1745">
+        <v>1744</v>
+      </c>
     </row>
     <row r="1746">
-      <c s="2" r="A1746"/>
+      <c t="s" s="1" r="A1746">
+        <v>1745</v>
+      </c>
     </row>
     <row r="1747">
-      <c s="2" r="A1747"/>
+      <c t="s" s="1" r="A1747">
+        <v>1746</v>
+      </c>
     </row>
     <row r="1748">
-      <c s="2" r="A1748"/>
+      <c t="s" s="1" r="A1748">
+        <v>1747</v>
+      </c>
     </row>
     <row r="1749">
-      <c s="2" r="A1749"/>
+      <c t="s" s="1" r="A1749">
+        <v>1748</v>
+      </c>
     </row>
     <row r="1750">
-      <c s="2" r="A1750"/>
+      <c t="s" s="1" r="A1750">
+        <v>1749</v>
+      </c>
     </row>
     <row r="1751">
-      <c s="2" r="A1751"/>
+      <c t="s" s="1" r="A1751">
+        <v>1750</v>
+      </c>
     </row>
     <row r="1752">
-      <c s="2" r="A1752"/>
+      <c t="s" s="1" r="A1752">
+        <v>1751</v>
+      </c>
     </row>
     <row r="1753">
-      <c s="2" r="A1753"/>
+      <c t="s" s="1" r="A1753">
+        <v>1752</v>
+      </c>
     </row>
     <row r="1754">
-      <c s="2" r="A1754"/>
+      <c t="s" s="1" r="A1754">
+        <v>1753</v>
+      </c>
     </row>
     <row r="1755">
-      <c s="2" r="A1755"/>
+      <c t="s" s="1" r="A1755">
+        <v>1754</v>
+      </c>
     </row>
     <row r="1756">
-      <c s="2" r="A1756"/>
+      <c t="s" s="1" r="A1756">
+        <v>1755</v>
+      </c>
     </row>
     <row r="1757">
-      <c s="2" r="A1757"/>
+      <c t="s" s="1" r="A1757">
+        <v>1756</v>
+      </c>
     </row>
     <row r="1758">
-      <c s="2" r="A1758"/>
+      <c t="s" s="1" r="A1758">
+        <v>1757</v>
+      </c>
     </row>
     <row r="1759">
-      <c s="2" r="A1759"/>
+      <c t="s" s="1" r="A1759">
+        <v>1758</v>
+      </c>
     </row>
     <row r="1760">
-      <c s="2" r="A1760"/>
+      <c t="s" s="1" r="A1760">
+        <v>1759</v>
+      </c>
     </row>
     <row r="1761">
-      <c s="2" r="A1761"/>
+      <c t="s" s="1" r="A1761">
+        <v>1760</v>
+      </c>
     </row>
     <row r="1762">
-      <c s="2" r="A1762"/>
+      <c t="s" s="1" r="A1762">
+        <v>1761</v>
+      </c>
     </row>
     <row r="1763">
-      <c s="2" r="A1763"/>
+      <c t="s" s="1" r="A1763">
+        <v>1762</v>
+      </c>
     </row>
     <row r="1764">
-      <c s="2" r="A1764"/>
+      <c t="s" s="1" r="A1764">
+        <v>1763</v>
+      </c>
     </row>
     <row r="1765">
-      <c s="2" r="A1765"/>
+      <c t="s" s="1" r="A1765">
+        <v>1764</v>
+      </c>
     </row>
     <row r="1766">
-      <c s="2" r="A1766"/>
+      <c t="s" s="1" r="A1766">
+        <v>1765</v>
+      </c>
     </row>
     <row r="1767">
-      <c s="2" r="A1767"/>
+      <c t="s" s="1" r="A1767">
+        <v>1766</v>
+      </c>
     </row>
     <row r="1768">
-      <c s="2" r="A1768"/>
+      <c t="s" s="1" r="A1768">
+        <v>1767</v>
+      </c>
     </row>
     <row r="1769">
-      <c s="2" r="A1769"/>
+      <c t="s" s="1" r="A1769">
+        <v>1768</v>
+      </c>
     </row>
     <row r="1770">
-      <c s="2" r="A1770"/>
+      <c t="s" s="1" r="A1770">
+        <v>1769</v>
+      </c>
     </row>
     <row r="1771">
-      <c s="2" r="A1771"/>
+      <c t="s" s="1" r="A1771">
+        <v>1770</v>
+      </c>
     </row>
     <row r="1772">
-      <c s="2" r="A1772"/>
+      <c t="s" s="1" r="A1772">
+        <v>1771</v>
+      </c>
     </row>
     <row r="1773">
-      <c s="2" r="A1773"/>
+      <c t="s" s="1" r="A1773">
+        <v>1772</v>
+      </c>
     </row>
     <row r="1774">
-      <c s="2" r="A1774"/>
+      <c t="s" s="1" r="A1774">
+        <v>1773</v>
+      </c>
     </row>
     <row r="1775">
-      <c s="2" r="A1775"/>
+      <c t="s" s="1" r="A1775">
+        <v>1774</v>
+      </c>
     </row>
     <row r="1776">
-      <c s="2" r="A1776"/>
+      <c t="s" s="1" r="A1776">
+        <v>1775</v>
+      </c>
     </row>
     <row r="1777">
-      <c s="2" r="A1777"/>
+      <c t="s" s="1" r="A1777">
+        <v>1776</v>
+      </c>
     </row>
     <row r="1778">
-      <c s="2" r="A1778"/>
+      <c t="s" s="1" r="A1778">
+        <v>1777</v>
+      </c>
     </row>
     <row r="1779">
-      <c s="2" r="A1779"/>
+      <c t="s" s="1" r="A1779">
+        <v>1778</v>
+      </c>
     </row>
     <row r="1780">
-      <c s="2" r="A1780"/>
+      <c t="s" s="1" r="A1780">
+        <v>1779</v>
+      </c>
     </row>
     <row r="1781">
-      <c s="2" r="A1781"/>
+      <c t="s" s="1" r="A1781">
+        <v>1780</v>
+      </c>
     </row>
     <row r="1782">
-      <c s="2" r="A1782"/>
+      <c t="s" s="1" r="A1782">
+        <v>1781</v>
+      </c>
     </row>
     <row r="1783">
-      <c s="2" r="A1783"/>
+      <c t="s" s="1" r="A1783">
+        <v>1782</v>
+      </c>
     </row>
     <row r="1784">
-      <c s="2" r="A1784"/>
+      <c t="s" s="1" r="A1784">
+        <v>1783</v>
+      </c>
     </row>
     <row r="1785">
-      <c s="2" r="A1785"/>
+      <c t="s" s="1" r="A1785">
+        <v>1784</v>
+      </c>
     </row>
     <row r="1786">
-      <c s="2" r="A1786"/>
+      <c t="s" s="1" r="A1786">
+        <v>1785</v>
+      </c>
     </row>
     <row r="1787">
-      <c s="2" r="A1787"/>
+      <c t="s" s="1" r="A1787">
+        <v>1786</v>
+      </c>
     </row>
     <row r="1788">
-      <c s="2" r="A1788"/>
+      <c t="s" s="1" r="A1788">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c t="s" s="1" r="A1789">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c t="s" s="1" r="A1790">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c t="s" s="1" r="A1791">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c t="s" s="1" r="A1792">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c t="s" s="1" r="A1793">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c t="s" s="1" r="A1794">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c t="s" s="1" r="A1795">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c t="s" s="1" r="A1796">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c t="s" s="1" r="A1797">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c t="s" s="1" r="A1798">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c t="s" s="1" r="A1799">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c t="s" s="1" r="A1800">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c t="s" s="1" r="A1801">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c t="s" s="1" r="A1802">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c t="s" s="1" r="A1803">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c t="s" s="1" r="A1804">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c t="s" s="1" r="A1805">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c t="s" s="1" r="A1806">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c t="s" s="1" r="A1807">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c t="s" s="1" r="A1808">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c t="s" s="1" r="A1809">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c t="s" s="1" r="A1810">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c t="s" s="1" r="A1811">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c t="s" s="1" r="A1812">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c t="s" s="1" r="A1813">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c t="s" s="1" r="A1814">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c t="s" s="1" r="A1815">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c t="s" s="1" r="A1816">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c t="s" s="1" r="A1817">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c t="s" s="1" r="A1818">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c t="s" s="1" r="A1819">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c t="s" s="1" r="A1820">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c t="s" s="1" r="A1821">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c t="s" s="1" r="A1822">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c t="s" s="1" r="A1823">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c t="s" s="1" r="A1824">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c t="s" s="1" r="A1825">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c t="s" s="1" r="A1826">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c t="s" s="1" r="A1827">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c t="s" s="1" r="A1828">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c t="s" s="1" r="A1829">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c t="s" s="1" r="A1830">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c t="s" s="1" r="A1831">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c t="s" s="1" r="A1832">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c t="s" s="1" r="A1833">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c t="s" s="1" r="A1834">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c t="s" s="1" r="A1835">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c t="s" s="1" r="A1836">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c t="s" s="1" r="A1837">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c t="s" s="1" r="A1838">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c t="s" s="1" r="A1839">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c t="s" s="1" r="A1840">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c t="s" s="1" r="A1841">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c t="s" s="1" r="A1842">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c t="s" s="1" r="A1843">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c t="s" s="1" r="A1844">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c t="s" s="1" r="A1845">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c t="s" s="1" r="A1846">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c t="s" s="1" r="A1847">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c t="s" s="1" r="A1848">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c t="s" s="1" r="A1849">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c t="s" s="1" r="A1850">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c t="s" s="1" r="A1851">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c t="s" s="1" r="A1852">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c t="s" s="1" r="A1853">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c t="s" s="1" r="A1854">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c t="s" s="1" r="A1855">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c t="s" s="1" r="A1856">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c t="s" s="1" r="A1857">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c t="s" s="1" r="A1858">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c t="s" s="1" r="A1859">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c t="s" s="1" r="A1860">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c t="s" s="1" r="A1861">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c t="s" s="1" r="A1862">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c t="s" s="1" r="A1863">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c t="s" s="1" r="A1864">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c t="s" s="1" r="A1865">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c t="s" s="1" r="A1866">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c t="s" s="1" r="A1867">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c t="s" s="1" r="A1868">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c t="s" s="1" r="A1869">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c t="s" s="1" r="A1870">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c t="s" s="1" r="A1871">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c t="s" s="1" r="A1872">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c t="s" s="1" r="A1873">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c t="s" s="1" r="A1874">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c t="s" s="1" r="A1875">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c t="s" s="1" r="A1876">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c t="s" s="1" r="A1877">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c t="s" s="1" r="A1878">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c t="s" s="1" r="A1879">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c t="s" s="1" r="A1880">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c t="s" s="1" r="A1881">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c t="s" s="1" r="A1882">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c t="s" s="1" r="A1883">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c t="s" s="1" r="A1884">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c t="s" s="1" r="A1885">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c t="s" s="1" r="A1886">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c t="s" s="1" r="A1887">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c t="s" s="1" r="A1888">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c t="s" s="1" r="A1889">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c t="s" s="1" r="A1890">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c t="s" s="1" r="A1891">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c t="s" s="1" r="A1892">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c t="s" s="1" r="A1893">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c t="s" s="1" r="A1894">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c t="s" s="1" r="A1895">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c t="s" s="1" r="A1896">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c t="s" s="1" r="A1897">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c t="s" s="1" r="A1898">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c t="s" s="1" r="A1899">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c t="s" s="1" r="A1900">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c t="s" s="1" r="A1901">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c t="s" s="1" r="A1902">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c t="s" s="1" r="A1903">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c t="s" s="1" r="A1904">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c t="s" s="1" r="A1905">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c t="s" s="1" r="A1906">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c t="s" s="1" r="A1907">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c t="s" s="1" r="A1908">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c t="s" s="1" r="A1909">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c t="s" s="1" r="A1910">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c t="s" s="1" r="A1911">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c t="s" s="1" r="A1912">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c t="s" s="1" r="A1913">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c t="s" s="1" r="A1914">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c t="s" s="1" r="A1915">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c t="s" s="1" r="A1916">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c t="s" s="1" r="A1917">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c t="s" s="1" r="A1918">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c t="s" s="1" r="A1919">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c t="s" s="1" r="A1920">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c t="s" s="1" r="A1921">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c t="s" s="1" r="A1922">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c t="s" s="1" r="A1923">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c t="s" s="1" r="A1924">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c t="s" s="1" r="A1925">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c t="s" s="1" r="A1926">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c t="s" s="1" r="A1927">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c t="s" s="1" r="A1928">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c t="s" s="1" r="A1929">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c t="s" s="1" r="A1930">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c t="s" s="1" r="A1931">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c t="s" s="1" r="A1932">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c t="s" s="1" r="A1933">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c t="s" s="1" r="A1934">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c t="s" s="1" r="A1935">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c t="s" s="1" r="A1936">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c t="s" s="1" r="A1937">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c t="s" s="1" r="A1938">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c t="s" s="1" r="A1939">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c t="s" s="1" r="A1940">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c t="s" s="1" r="A1941">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c t="s" s="1" r="A1942">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c t="s" s="1" r="A1943">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c t="s" s="1" r="A1944">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c t="s" s="1" r="A1945">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c t="s" s="1" r="A1946">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c t="s" s="1" r="A1947">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c t="s" s="1" r="A1948">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c t="s" s="1" r="A1949">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c t="s" s="1" r="A1950">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c t="s" s="1" r="A1951">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c t="s" s="1" r="A1952">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c t="s" s="1" r="A1953">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c t="s" s="1" r="A1954">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c t="s" s="1" r="A1955">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c t="s" s="1" r="A1956">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c t="s" s="1" r="A1957">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c t="s" s="1" r="A1958">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c t="s" s="1" r="A1959">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c t="s" s="1" r="A1960">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c t="s" s="1" r="A1961">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c t="s" s="1" r="A1962">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c t="s" s="1" r="A1963">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c t="s" s="1" r="A1964">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c t="s" s="1" r="A1965">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c t="s" s="1" r="A1966">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c t="s" s="1" r="A1967">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c t="s" s="1" r="A1968">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c t="s" s="1" r="A1969">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c t="s" s="1" r="A1970">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c t="s" s="1" r="A1971">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c t="s" s="1" r="A1972">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c t="s" s="1" r="A1973">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c t="s" s="1" r="A1974">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c t="s" s="1" r="A1975">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c t="s" s="1" r="A1976">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c t="s" s="1" r="A1977">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c t="s" s="1" r="A1978">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c t="s" s="1" r="A1979">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c s="1" r="A1980"/>
+    </row>
+    <row r="1981">
+      <c s="2" r="A1981"/>
+    </row>
+    <row r="1982">
+      <c s="2" r="A1982"/>
+    </row>
+    <row r="1983">
+      <c s="2" r="A1983"/>
+    </row>
+    <row r="1984">
+      <c s="2" r="A1984"/>
+    </row>
+    <row r="1985">
+      <c s="2" r="A1985"/>
+    </row>
+    <row r="1986">
+      <c s="2" r="A1986"/>
+    </row>
+    <row r="1987">
+      <c s="2" r="A1987"/>
+    </row>
+    <row r="1988">
+      <c s="2" r="A1988"/>
+    </row>
+    <row r="1989">
+      <c s="2" r="A1989"/>
+    </row>
+    <row r="1990">
+      <c s="2" r="A1990"/>
+    </row>
+    <row r="1991">
+      <c s="2" r="A1991"/>
+    </row>
+    <row r="1992">
+      <c s="2" r="A1992"/>
+    </row>
+    <row r="1993">
+      <c s="2" r="A1993"/>
+    </row>
+    <row r="1994">
+      <c s="2" r="A1994"/>
+    </row>
+    <row r="1995">
+      <c s="2" r="A1995"/>
+    </row>
+    <row r="1996">
+      <c s="2" r="A1996"/>
+    </row>
+    <row r="1997">
+      <c s="2" r="A1997"/>
+    </row>
+    <row r="1998">
+      <c s="2" r="A1998"/>
+    </row>
+    <row r="1999">
+      <c s="2" r="A1999"/>
+    </row>
+    <row r="2000">
+      <c s="2" r="A2000"/>
+    </row>
+    <row r="2001">
+      <c s="2" r="A2001"/>
+    </row>
+    <row r="2002">
+      <c s="2" r="A2002"/>
+    </row>
+    <row r="2003">
+      <c s="2" r="A2003"/>
+    </row>
+    <row r="2004">
+      <c s="2" r="A2004"/>
+    </row>
+    <row r="2005">
+      <c s="2" r="A2005"/>
+    </row>
+    <row r="2006">
+      <c s="2" r="A2006"/>
+    </row>
+    <row r="2007">
+      <c s="2" r="A2007"/>
+    </row>
+    <row r="2008">
+      <c s="2" r="A2008"/>
+    </row>
+    <row r="2009">
+      <c s="2" r="A2009"/>
+    </row>
+    <row r="2010">
+      <c s="2" r="A2010"/>
+    </row>
+    <row r="2011">
+      <c s="2" r="A2011"/>
+    </row>
+    <row r="2012">
+      <c s="2" r="A2012"/>
+    </row>
+    <row r="2013">
+      <c s="2" r="A2013"/>
+    </row>
+    <row r="2014">
+      <c s="2" r="A2014"/>
+    </row>
+    <row r="2015">
+      <c s="2" r="A2015"/>
+    </row>
+    <row r="2016">
+      <c s="2" r="A2016"/>
+    </row>
+    <row r="2017">
+      <c s="2" r="A2017"/>
+    </row>
+    <row r="2018">
+      <c s="2" r="A2018"/>
+    </row>
+    <row r="2019">
+      <c s="2" r="A2019"/>
+    </row>
+    <row r="2020">
+      <c s="2" r="A2020"/>
+    </row>
+    <row r="2021">
+      <c s="2" r="A2021"/>
+    </row>
+    <row r="2022">
+      <c s="2" r="A2022"/>
+    </row>
+    <row r="2023">
+      <c s="2" r="A2023"/>
+    </row>
+    <row r="2024">
+      <c s="2" r="A2024"/>
+    </row>
+    <row r="2025">
+      <c s="2" r="A2025"/>
+    </row>
+    <row r="2026">
+      <c s="2" r="A2026"/>
+    </row>
+    <row r="2027">
+      <c s="2" r="A2027"/>
+    </row>
+    <row r="2028">
+      <c s="2" r="A2028"/>
+    </row>
+    <row r="2029">
+      <c s="2" r="A2029"/>
+    </row>
+    <row r="2030">
+      <c s="2" r="A2030"/>
+    </row>
+    <row r="2031">
+      <c s="2" r="A2031"/>
+    </row>
+    <row r="2032">
+      <c s="2" r="A2032"/>
+    </row>
+    <row r="2033">
+      <c s="2" r="A2033"/>
+    </row>
+    <row r="2034">
+      <c s="2" r="A2034"/>
+    </row>
+    <row r="2035">
+      <c s="2" r="A2035"/>
+    </row>
+    <row r="2036">
+      <c s="2" r="A2036"/>
+    </row>
+    <row r="2037">
+      <c s="2" r="A2037"/>
+    </row>
+    <row r="2038">
+      <c s="2" r="A2038"/>
+    </row>
+    <row r="2039">
+      <c s="2" r="A2039"/>
+    </row>
+    <row r="2040">
+      <c s="2" r="A2040"/>
+    </row>
+    <row r="2041">
+      <c s="2" r="A2041"/>
+    </row>
+    <row r="2042">
+      <c s="2" r="A2042"/>
+    </row>
+    <row r="2043">
+      <c s="2" r="A2043"/>
+    </row>
+    <row r="2044">
+      <c s="2" r="A2044"/>
+    </row>
+    <row r="2045">
+      <c s="2" r="A2045"/>
+    </row>
+    <row r="2046">
+      <c s="2" r="A2046"/>
+    </row>
+    <row r="2047">
+      <c s="2" r="A2047"/>
+    </row>
+    <row r="2048">
+      <c s="2" r="A2048"/>
+    </row>
+    <row r="2049">
+      <c s="2" r="A2049"/>
+    </row>
+    <row r="2050">
+      <c s="2" r="A2050"/>
+    </row>
+    <row r="2051">
+      <c s="2" r="A2051"/>
+    </row>
+    <row r="2052">
+      <c s="2" r="A2052"/>
+    </row>
+    <row r="2053">
+      <c s="2" r="A2053"/>
+    </row>
+    <row r="2054">
+      <c s="2" r="A2054"/>
+    </row>
+    <row r="2055">
+      <c s="2" r="A2055"/>
+    </row>
+    <row r="2056">
+      <c s="2" r="A2056"/>
+    </row>
+    <row r="2057">
+      <c s="2" r="A2057"/>
+    </row>
+    <row r="2058">
+      <c s="2" r="A2058"/>
+    </row>
+    <row r="2059">
+      <c s="2" r="A2059"/>
+    </row>
+    <row r="2060">
+      <c s="2" r="A2060"/>
+    </row>
+    <row r="2061">
+      <c s="2" r="A2061"/>
+    </row>
+    <row r="2062">
+      <c s="2" r="A2062"/>
+    </row>
+    <row r="2063">
+      <c s="2" r="A2063"/>
+    </row>
+    <row r="2064">
+      <c s="2" r="A2064"/>
+    </row>
+    <row r="2065">
+      <c s="2" r="A2065"/>
+    </row>
+    <row r="2066">
+      <c s="2" r="A2066"/>
+    </row>
+    <row r="2067">
+      <c s="2" r="A2067"/>
+    </row>
+    <row r="2068">
+      <c s="2" r="A2068"/>
+    </row>
+    <row r="2069">
+      <c s="2" r="A2069"/>
+    </row>
+    <row r="2070">
+      <c s="2" r="A2070"/>
+    </row>
+    <row r="2071">
+      <c s="2" r="A2071"/>
+    </row>
+    <row r="2072">
+      <c s="2" r="A2072"/>
+    </row>
+    <row r="2073">
+      <c s="2" r="A2073"/>
+    </row>
+    <row r="2074">
+      <c s="2" r="A2074"/>
+    </row>
+    <row r="2075">
+      <c s="2" r="A2075"/>
+    </row>
+    <row r="2076">
+      <c s="2" r="A2076"/>
+    </row>
+    <row r="2077">
+      <c s="2" r="A2077"/>
+    </row>
+    <row r="2078">
+      <c s="2" r="A2078"/>
+    </row>
+    <row r="2079">
+      <c s="2" r="A2079"/>
+    </row>
+    <row r="2080">
+      <c s="2" r="A2080"/>
+    </row>
+    <row r="2081">
+      <c s="2" r="A2081"/>
+    </row>
+    <row r="2082">
+      <c s="2" r="A2082"/>
+    </row>
+    <row r="2083">
+      <c s="2" r="A2083"/>
+    </row>
+    <row r="2084">
+      <c s="2" r="A2084"/>
+    </row>
+    <row r="2085">
+      <c s="2" r="A2085"/>
+    </row>
+    <row r="2086">
+      <c s="2" r="A2086"/>
+    </row>
+    <row r="2087">
+      <c s="2" r="A2087"/>
+    </row>
+    <row r="2088">
+      <c s="2" r="A2088"/>
+    </row>
+    <row r="2089">
+      <c s="2" r="A2089"/>
+    </row>
+    <row r="2090">
+      <c s="2" r="A2090"/>
+    </row>
+    <row r="2091">
+      <c s="2" r="A2091"/>
+    </row>
+    <row r="2092">
+      <c s="2" r="A2092"/>
+    </row>
+    <row r="2093">
+      <c s="2" r="A2093"/>
+    </row>
+    <row r="2094">
+      <c s="2" r="A2094"/>
+    </row>
+    <row r="2095">
+      <c s="2" r="A2095"/>
+    </row>
+    <row r="2096">
+      <c s="2" r="A2096"/>
+    </row>
+    <row r="2097">
+      <c s="2" r="A2097"/>
+    </row>
+    <row r="2098">
+      <c s="2" r="A2098"/>
+    </row>
+    <row r="2099">
+      <c s="2" r="A2099"/>
+    </row>
+    <row r="2100">
+      <c s="2" r="A2100"/>
+    </row>
+    <row r="2101">
+      <c s="2" r="A2101"/>
+    </row>
+    <row r="2102">
+      <c s="2" r="A2102"/>
+    </row>
+    <row r="2103">
+      <c s="2" r="A2103"/>
+    </row>
+    <row r="2104">
+      <c s="2" r="A2104"/>
+    </row>
+    <row r="2105">
+      <c s="2" r="A2105"/>
+    </row>
+    <row r="2106">
+      <c s="2" r="A2106"/>
+    </row>
+    <row r="2107">
+      <c s="2" r="A2107"/>
+    </row>
+    <row r="2108">
+      <c s="2" r="A2108"/>
+    </row>
+    <row r="2109">
+      <c s="2" r="A2109"/>
+    </row>
+    <row r="2110">
+      <c s="2" r="A2110"/>
+    </row>
+    <row r="2111">
+      <c s="2" r="A2111"/>
+    </row>
+    <row r="2112">
+      <c s="2" r="A2112"/>
+    </row>
+    <row r="2113">
+      <c s="2" r="A2113"/>
+    </row>
+    <row r="2114">
+      <c s="2" r="A2114"/>
+    </row>
+    <row r="2115">
+      <c s="2" r="A2115"/>
+    </row>
+    <row r="2116">
+      <c s="2" r="A2116"/>
+    </row>
+    <row r="2117">
+      <c s="2" r="A2117"/>
+    </row>
+    <row r="2118">
+      <c s="2" r="A2118"/>
+    </row>
+    <row r="2119">
+      <c s="2" r="A2119"/>
+    </row>
+    <row r="2120">
+      <c s="2" r="A2120"/>
+    </row>
+    <row r="2121">
+      <c s="2" r="A2121"/>
+    </row>
+    <row r="2122">
+      <c s="2" r="A2122"/>
+    </row>
+    <row r="2123">
+      <c s="2" r="A2123"/>
+    </row>
+    <row r="2124">
+      <c s="2" r="A2124"/>
+    </row>
+    <row r="2125">
+      <c s="2" r="A2125"/>
+    </row>
+    <row r="2126">
+      <c s="2" r="A2126"/>
+    </row>
+    <row r="2127">
+      <c s="2" r="A2127"/>
+    </row>
+    <row r="2128">
+      <c s="2" r="A2128"/>
+    </row>
+    <row r="2129">
+      <c s="2" r="A2129"/>
+    </row>
+    <row r="2130">
+      <c s="2" r="A2130"/>
+    </row>
+    <row r="2131">
+      <c s="2" r="A2131"/>
+    </row>
+    <row r="2132">
+      <c s="2" r="A2132"/>
+    </row>
+    <row r="2133">
+      <c s="2" r="A2133"/>
+    </row>
+    <row r="2134">
+      <c s="2" r="A2134"/>
+    </row>
+    <row r="2135">
+      <c s="2" r="A2135"/>
+    </row>
+    <row r="2136">
+      <c s="2" r="A2136"/>
+    </row>
+    <row r="2137">
+      <c s="2" r="A2137"/>
+    </row>
+    <row r="2138">
+      <c s="2" r="A2138"/>
+    </row>
+    <row r="2139">
+      <c s="2" r="A2139"/>
+    </row>
+    <row r="2140">
+      <c s="2" r="A2140"/>
+    </row>
+    <row r="2141">
+      <c s="2" r="A2141"/>
+    </row>
+    <row r="2142">
+      <c s="2" r="A2142"/>
+    </row>
+    <row r="2143">
+      <c s="2" r="A2143"/>
+    </row>
+    <row r="2144">
+      <c s="2" r="A2144"/>
+    </row>
+    <row r="2145">
+      <c s="2" r="A2145"/>
+    </row>
+    <row r="2146">
+      <c s="2" r="A2146"/>
+    </row>
+    <row r="2147">
+      <c s="2" r="A2147"/>
+    </row>
+    <row r="2148">
+      <c s="2" r="A2148"/>
+    </row>
+    <row r="2149">
+      <c s="2" r="A2149"/>
+    </row>
+    <row r="2150">
+      <c s="2" r="A2150"/>
+    </row>
+    <row r="2151">
+      <c s="2" r="A2151"/>
+    </row>
+    <row r="2152">
+      <c s="2" r="A2152"/>
+    </row>
+    <row r="2153">
+      <c s="2" r="A2153"/>
+    </row>
+    <row r="2154">
+      <c s="2" r="A2154"/>
+    </row>
+    <row r="2155">
+      <c s="2" r="A2155"/>
+    </row>
+    <row r="2156">
+      <c s="2" r="A2156"/>
+    </row>
+    <row r="2157">
+      <c s="2" r="A2157"/>
+    </row>
+    <row r="2158">
+      <c s="2" r="A2158"/>
+    </row>
+    <row r="2159">
+      <c s="2" r="A2159"/>
+    </row>
+    <row r="2160">
+      <c s="2" r="A2160"/>
+    </row>
+    <row r="2161">
+      <c s="2" r="A2161"/>
+    </row>
+    <row r="2162">
+      <c s="2" r="A2162"/>
+    </row>
+    <row r="2163">
+      <c s="2" r="A2163"/>
+    </row>
+    <row r="2164">
+      <c s="2" r="A2164"/>
+    </row>
+    <row r="2165">
+      <c s="2" r="A2165"/>
+    </row>
+    <row r="2166">
+      <c s="2" r="A2166"/>
+    </row>
+    <row r="2167">
+      <c s="2" r="A2167"/>
+    </row>
+    <row r="2168">
+      <c s="2" r="A2168"/>
+    </row>
+    <row r="2169">
+      <c s="2" r="A2169"/>
+    </row>
+    <row r="2170">
+      <c s="2" r="A2170"/>
+    </row>
+    <row r="2171">
+      <c s="2" r="A2171"/>
+    </row>
+    <row r="2172">
+      <c s="2" r="A2172"/>
+    </row>
+    <row r="2173">
+      <c s="2" r="A2173"/>
+    </row>
+    <row r="2174">
+      <c s="2" r="A2174"/>
+    </row>
+    <row r="2175">
+      <c s="2" r="A2175"/>
+    </row>
+    <row r="2176">
+      <c s="2" r="A2176"/>
+    </row>
+    <row r="2177">
+      <c s="2" r="A2177"/>
+    </row>
+    <row r="2178">
+      <c s="2" r="A2178"/>
+    </row>
+    <row r="2179">
+      <c s="2" r="A2179"/>
+    </row>
+    <row r="2180">
+      <c s="2" r="A2180"/>
+    </row>
+    <row r="2181">
+      <c s="2" r="A2181"/>
+    </row>
+    <row r="2182">
+      <c s="2" r="A2182"/>
+    </row>
+    <row r="2183">
+      <c s="2" r="A2183"/>
+    </row>
+    <row r="2184">
+      <c s="2" r="A2184"/>
+    </row>
+    <row r="2185">
+      <c s="2" r="A2185"/>
+    </row>
+    <row r="2186">
+      <c s="2" r="A2186"/>
+    </row>
+    <row r="2187">
+      <c s="2" r="A2187"/>
+    </row>
+    <row r="2188">
+      <c s="2" r="A2188"/>
+    </row>
+    <row r="2189">
+      <c s="2" r="A2189"/>
+    </row>
+    <row r="2190">
+      <c s="2" r="A2190"/>
+    </row>
+    <row r="2191">
+      <c s="2" r="A2191"/>
+    </row>
+    <row r="2192">
+      <c s="2" r="A2192"/>
+    </row>
+    <row r="2193">
+      <c s="2" r="A2193"/>
+    </row>
+    <row r="2194">
+      <c s="2" r="A2194"/>
+    </row>
+    <row r="2195">
+      <c s="2" r="A2195"/>
+    </row>
+    <row r="2196">
+      <c s="2" r="A2196"/>
+    </row>
+    <row r="2197">
+      <c s="2" r="A2197"/>
+    </row>
+    <row r="2198">
+      <c s="2" r="A2198"/>
+    </row>
+    <row r="2199">
+      <c s="2" r="A2199"/>
+    </row>
+    <row r="2200">
+      <c s="2" r="A2200"/>
+    </row>
+    <row r="2201">
+      <c s="2" r="A2201"/>
+    </row>
+    <row r="2202">
+      <c s="2" r="A2202"/>
+    </row>
+    <row r="2203">
+      <c s="2" r="A2203"/>
+    </row>
+    <row r="2204">
+      <c s="2" r="A2204"/>
+    </row>
+    <row r="2205">
+      <c s="2" r="A2205"/>
+    </row>
+    <row r="2206">
+      <c s="2" r="A2206"/>
+    </row>
+    <row r="2207">
+      <c s="2" r="A2207"/>
+    </row>
+    <row r="2208">
+      <c s="2" r="A2208"/>
+    </row>
+    <row r="2209">
+      <c s="2" r="A2209"/>
+    </row>
+    <row r="2210">
+      <c s="2" r="A2210"/>
+    </row>
+    <row r="2211">
+      <c s="2" r="A2211"/>
+    </row>
+    <row r="2212">
+      <c s="2" r="A2212"/>
+    </row>
+    <row r="2213">
+      <c s="2" r="A2213"/>
+    </row>
+    <row r="2214">
+      <c s="2" r="A2214"/>
+    </row>
+    <row r="2215">
+      <c s="2" r="A2215"/>
+    </row>
+    <row r="2216">
+      <c s="2" r="A2216"/>
+    </row>
+    <row r="2217">
+      <c s="2" r="A2217"/>
+    </row>
+    <row r="2218">
+      <c s="2" r="A2218"/>
+    </row>
+    <row r="2219">
+      <c s="2" r="A2219"/>
+    </row>
+    <row r="2220">
+      <c s="2" r="A2220"/>
+    </row>
+    <row r="2221">
+      <c s="2" r="A2221"/>
+    </row>
+    <row r="2222">
+      <c s="2" r="A2222"/>
+    </row>
+    <row r="2223">
+      <c s="2" r="A2223"/>
+    </row>
+    <row r="2224">
+      <c s="2" r="A2224"/>
+    </row>
+    <row r="2225">
+      <c s="2" r="A2225"/>
+    </row>
+    <row r="2226">
+      <c s="2" r="A2226"/>
+    </row>
+    <row r="2227">
+      <c s="2" r="A2227"/>
+    </row>
+    <row r="2228">
+      <c s="2" r="A2228"/>
+    </row>
+    <row r="2229">
+      <c s="2" r="A2229"/>
+    </row>
+    <row r="2230">
+      <c s="2" r="A2230"/>
+    </row>
+    <row r="2231">
+      <c s="2" r="A2231"/>
+    </row>
+    <row r="2232">
+      <c s="2" r="A2232"/>
+    </row>
+    <row r="2233">
+      <c s="2" r="A2233"/>
+    </row>
+    <row r="2234">
+      <c s="2" r="A2234"/>
+    </row>
+    <row r="2235">
+      <c s="2" r="A2235"/>
+    </row>
+    <row r="2236">
+      <c s="2" r="A2236"/>
+    </row>
+    <row r="2237">
+      <c s="2" r="A2237"/>
+    </row>
+    <row r="2238">
+      <c s="2" r="A2238"/>
+    </row>
+    <row r="2239">
+      <c s="2" r="A2239"/>
+    </row>
+    <row r="2240">
+      <c s="2" r="A2240"/>
+    </row>
+    <row r="2241">
+      <c s="2" r="A2241"/>
+    </row>
+    <row r="2242">
+      <c s="2" r="A2242"/>
+    </row>
+    <row r="2243">
+      <c s="2" r="A2243"/>
+    </row>
+    <row r="2244">
+      <c s="2" r="A2244"/>
+    </row>
+    <row r="2245">
+      <c s="2" r="A2245"/>
+    </row>
+    <row r="2246">
+      <c s="2" r="A2246"/>
+    </row>
+    <row r="2247">
+      <c s="2" r="A2247"/>
+    </row>
+    <row r="2248">
+      <c s="2" r="A2248"/>
+    </row>
+    <row r="2249">
+      <c s="2" r="A2249"/>
+    </row>
+    <row r="2250">
+      <c s="2" r="A2250"/>
+    </row>
+    <row r="2251">
+      <c s="2" r="A2251"/>
+    </row>
+    <row r="2252">
+      <c s="2" r="A2252"/>
+    </row>
+    <row r="2253">
+      <c s="2" r="A2253"/>
+    </row>
+    <row r="2254">
+      <c s="2" r="A2254"/>
+    </row>
+    <row r="2255">
+      <c s="2" r="A2255"/>
+    </row>
+    <row r="2256">
+      <c s="2" r="A2256"/>
+    </row>
+    <row r="2257">
+      <c s="2" r="A2257"/>
+    </row>
+    <row r="2258">
+      <c s="2" r="A2258"/>
+    </row>
+    <row r="2259">
+      <c s="2" r="A2259"/>
+    </row>
+    <row r="2260">
+      <c s="2" r="A2260"/>
+    </row>
+    <row r="2261">
+      <c s="2" r="A2261"/>
+    </row>
+    <row r="2262">
+      <c s="2" r="A2262"/>
+    </row>
+    <row r="2263">
+      <c s="2" r="A2263"/>
+    </row>
+    <row r="2264">
+      <c s="2" r="A2264"/>
+    </row>
+    <row r="2265">
+      <c s="2" r="A2265"/>
+    </row>
+    <row r="2266">
+      <c s="2" r="A2266"/>
+    </row>
+    <row r="2267">
+      <c s="2" r="A2267"/>
+    </row>
+    <row r="2268">
+      <c s="2" r="A2268"/>
+    </row>
+    <row r="2269">
+      <c s="2" r="A2269"/>
+    </row>
+    <row r="2270">
+      <c s="2" r="A2270"/>
+    </row>
+    <row r="2271">
+      <c s="2" r="A2271"/>
+    </row>
+    <row r="2272">
+      <c s="2" r="A2272"/>
+    </row>
+    <row r="2273">
+      <c s="2" r="A2273"/>
+    </row>
+    <row r="2274">
+      <c s="2" r="A2274"/>
+    </row>
+    <row r="2275">
+      <c s="2" r="A2275"/>
+    </row>
+    <row r="2276">
+      <c s="2" r="A2276"/>
+    </row>
+    <row r="2277">
+      <c s="2" r="A2277"/>
+    </row>
+    <row r="2278">
+      <c s="2" r="A2278"/>
+    </row>
+    <row r="2279">
+      <c s="2" r="A2279"/>
+    </row>
+    <row r="2280">
+      <c s="2" r="A2280"/>
+    </row>
+    <row r="2281">
+      <c s="2" r="A2281"/>
+    </row>
+    <row r="2282">
+      <c s="2" r="A2282"/>
+    </row>
+    <row r="2283">
+      <c s="2" r="A2283"/>
+    </row>
+    <row r="2284">
+      <c s="2" r="A2284"/>
+    </row>
+    <row r="2285">
+      <c s="2" r="A2285"/>
+    </row>
+    <row r="2286">
+      <c s="2" r="A2286"/>
+    </row>
+    <row r="2287">
+      <c s="2" r="A2287"/>
+    </row>
+    <row r="2288">
+      <c s="2" r="A2288"/>
+    </row>
+    <row r="2289">
+      <c s="2" r="A2289"/>
+    </row>
+    <row r="2290">
+      <c s="2" r="A2290"/>
+    </row>
+    <row r="2291">
+      <c s="2" r="A2291"/>
+    </row>
+    <row r="2292">
+      <c s="2" r="A2292"/>
+    </row>
+    <row r="2293">
+      <c s="2" r="A2293"/>
+    </row>
+    <row r="2294">
+      <c s="2" r="A2294"/>
+    </row>
+    <row r="2295">
+      <c s="2" r="A2295"/>
+    </row>
+    <row r="2296">
+      <c s="2" r="A2296"/>
+    </row>
+    <row r="2297">
+      <c s="2" r="A2297"/>
+    </row>
+    <row r="2298">
+      <c s="2" r="A2298"/>
+    </row>
+    <row r="2299">
+      <c s="2" r="A2299"/>
+    </row>
+    <row r="2300">
+      <c s="2" r="A2300"/>
+    </row>
+    <row r="2301">
+      <c s="2" r="A2301"/>
+    </row>
+    <row r="2302">
+      <c s="2" r="A2302"/>
+    </row>
+    <row r="2303">
+      <c s="2" r="A2303"/>
+    </row>
+    <row r="2304">
+      <c s="2" r="A2304"/>
+    </row>
+    <row r="2305">
+      <c s="2" r="A2305"/>
+    </row>
+    <row r="2306">
+      <c s="2" r="A2306"/>
+    </row>
+    <row r="2307">
+      <c s="2" r="A2307"/>
+    </row>
+    <row r="2308">
+      <c s="2" r="A2308"/>
+    </row>
+    <row r="2309">
+      <c s="2" r="A2309"/>
+    </row>
+    <row r="2310">
+      <c s="2" r="A2310"/>
+    </row>
+    <row r="2311">
+      <c s="2" r="A2311"/>
+    </row>
+    <row r="2312">
+      <c s="2" r="A2312"/>
+    </row>
+    <row r="2313">
+      <c s="2" r="A2313"/>
+    </row>
+    <row r="2314">
+      <c s="2" r="A2314"/>
+    </row>
+    <row r="2315">
+      <c s="2" r="A2315"/>
+    </row>
+    <row r="2316">
+      <c s="2" r="A2316"/>
+    </row>
+    <row r="2317">
+      <c s="2" r="A2317"/>
+    </row>
+    <row r="2318">
+      <c s="2" r="A2318"/>
+    </row>
+    <row r="2319">
+      <c s="2" r="A2319"/>
+    </row>
+    <row r="2320">
+      <c s="2" r="A2320"/>
+    </row>
+    <row r="2321">
+      <c s="2" r="A2321"/>
+    </row>
+    <row r="2322">
+      <c s="2" r="A2322"/>
+    </row>
+    <row r="2323">
+      <c s="2" r="A2323"/>
+    </row>
+    <row r="2324">
+      <c s="2" r="A2324"/>
+    </row>
+    <row r="2325">
+      <c s="2" r="A2325"/>
+    </row>
+    <row r="2326">
+      <c s="2" r="A2326"/>
+    </row>
+    <row r="2327">
+      <c s="2" r="A2327"/>
+    </row>
+    <row r="2328">
+      <c s="2" r="A2328"/>
+    </row>
+    <row r="2329">
+      <c s="2" r="A2329"/>
+    </row>
+    <row r="2330">
+      <c s="2" r="A2330"/>
+    </row>
+    <row r="2331">
+      <c s="2" r="A2331"/>
+    </row>
+    <row r="2332">
+      <c s="2" r="A2332"/>
+    </row>
+    <row r="2333">
+      <c s="2" r="A2333"/>
+    </row>
+    <row r="2334">
+      <c s="2" r="A2334"/>
+    </row>
+    <row r="2335">
+      <c s="2" r="A2335"/>
+    </row>
+    <row r="2336">
+      <c s="2" r="A2336"/>
+    </row>
+    <row r="2337">
+      <c s="2" r="A2337"/>
+    </row>
+    <row r="2338">
+      <c s="2" r="A2338"/>
+    </row>
+    <row r="2339">
+      <c s="2" r="A2339"/>
+    </row>
+    <row r="2340">
+      <c s="2" r="A2340"/>
+    </row>
+    <row r="2341">
+      <c s="2" r="A2341"/>
+    </row>
+    <row r="2342">
+      <c s="2" r="A2342"/>
+    </row>
+    <row r="2343">
+      <c s="2" r="A2343"/>
+    </row>
+    <row r="2344">
+      <c s="2" r="A2344"/>
+    </row>
+    <row r="2345">
+      <c s="2" r="A2345"/>
+    </row>
+    <row r="2346">
+      <c s="2" r="A2346"/>
+    </row>
+    <row r="2347">
+      <c s="2" r="A2347"/>
+    </row>
+    <row r="2348">
+      <c s="2" r="A2348"/>
+    </row>
+    <row r="2349">
+      <c s="2" r="A2349"/>
+    </row>
+    <row r="2350">
+      <c s="2" r="A2350"/>
+    </row>
+    <row r="2351">
+      <c s="2" r="A2351"/>
+    </row>
+    <row r="2352">
+      <c s="2" r="A2352"/>
+    </row>
+    <row r="2353">
+      <c s="2" r="A2353"/>
+    </row>
+    <row r="2354">
+      <c s="2" r="A2354"/>
+    </row>
+    <row r="2355">
+      <c s="2" r="A2355"/>
+    </row>
+    <row r="2356">
+      <c s="2" r="A2356"/>
+    </row>
+    <row r="2357">
+      <c s="2" r="A2357"/>
+    </row>
+    <row r="2358">
+      <c s="2" r="A2358"/>
+    </row>
+    <row r="2359">
+      <c s="2" r="A2359"/>
+    </row>
+    <row r="2360">
+      <c s="2" r="A2360"/>
+    </row>
+    <row r="2361">
+      <c s="2" r="A2361"/>
+    </row>
+    <row r="2362">
+      <c s="2" r="A2362"/>
+    </row>
+    <row r="2363">
+      <c s="2" r="A2363"/>
+    </row>
+    <row r="2364">
+      <c s="2" r="A2364"/>
+    </row>
+    <row r="2365">
+      <c s="2" r="A2365"/>
+    </row>
+    <row r="2366">
+      <c s="2" r="A2366"/>
+    </row>
+    <row r="2367">
+      <c s="2" r="A2367"/>
+    </row>
+    <row r="2368">
+      <c s="2" r="A2368"/>
+    </row>
+    <row r="2369">
+      <c s="2" r="A2369"/>
+    </row>
+    <row r="2370">
+      <c s="2" r="A2370"/>
+    </row>
+    <row r="2371">
+      <c s="2" r="A2371"/>
+    </row>
+    <row r="2372">
+      <c s="2" r="A2372"/>
+    </row>
+    <row r="2373">
+      <c s="2" r="A2373"/>
+    </row>
+    <row r="2374">
+      <c s="2" r="A2374"/>
+    </row>
+    <row r="2375">
+      <c s="2" r="A2375"/>
+    </row>
+    <row r="2376">
+      <c s="2" r="A2376"/>
+    </row>
+    <row r="2377">
+      <c s="2" r="A2377"/>
+    </row>
+    <row r="2378">
+      <c s="2" r="A2378"/>
+    </row>
+    <row r="2379">
+      <c s="2" r="A2379"/>
+    </row>
+    <row r="2380">
+      <c s="2" r="A2380"/>
+    </row>
+    <row r="2381">
+      <c s="2" r="A2381"/>
+    </row>
+    <row r="2382">
+      <c s="2" r="A2382"/>
+    </row>
+    <row r="2383">
+      <c s="2" r="A2383"/>
+    </row>
+    <row r="2384">
+      <c s="2" r="A2384"/>
+    </row>
+    <row r="2385">
+      <c s="2" r="A2385"/>
+    </row>
+    <row r="2386">
+      <c s="2" r="A2386"/>
+    </row>
+    <row r="2387">
+      <c s="2" r="A2387"/>
+    </row>
+    <row r="2388">
+      <c s="2" r="A2388"/>
+    </row>
+    <row r="2389">
+      <c s="2" r="A2389"/>
+    </row>
+    <row r="2390">
+      <c s="2" r="A2390"/>
+    </row>
+    <row r="2391">
+      <c s="2" r="A2391"/>
+    </row>
+    <row r="2392">
+      <c s="2" r="A2392"/>
+    </row>
+    <row r="2393">
+      <c s="2" r="A2393"/>
+    </row>
+    <row r="2394">
+      <c s="2" r="A2394"/>
+    </row>
+    <row r="2395">
+      <c s="2" r="A2395"/>
+    </row>
+    <row r="2396">
+      <c s="2" r="A2396"/>
+    </row>
+    <row r="2397">
+      <c s="2" r="A2397"/>
+    </row>
+    <row r="2398">
+      <c s="2" r="A2398"/>
+    </row>
+    <row r="2399">
+      <c s="2" r="A2399"/>
+    </row>
+    <row r="2400">
+      <c s="2" r="A2400"/>
+    </row>
+    <row r="2401">
+      <c s="2" r="A2401"/>
+    </row>
+    <row r="2402">
+      <c s="2" r="A2402"/>
+    </row>
+    <row r="2403">
+      <c s="2" r="A2403"/>
+    </row>
+    <row r="2404">
+      <c s="2" r="A2404"/>
+    </row>
+    <row r="2405">
+      <c s="2" r="A2405"/>
+    </row>
+    <row r="2406">
+      <c s="2" r="A2406"/>
+    </row>
+    <row r="2407">
+      <c s="2" r="A2407"/>
+    </row>
+    <row r="2408">
+      <c s="2" r="A2408"/>
+    </row>
+    <row r="2409">
+      <c s="2" r="A2409"/>
+    </row>
+    <row r="2410">
+      <c s="2" r="A2410"/>
+    </row>
+    <row r="2411">
+      <c s="2" r="A2411"/>
+    </row>
+    <row r="2412">
+      <c s="2" r="A2412"/>
+    </row>
+    <row r="2413">
+      <c s="2" r="A2413"/>
+    </row>
+    <row r="2414">
+      <c s="2" r="A2414"/>
+    </row>
+    <row r="2415">
+      <c s="2" r="A2415"/>
+    </row>
+    <row r="2416">
+      <c s="2" r="A2416"/>
+    </row>
+    <row r="2417">
+      <c s="2" r="A2417"/>
+    </row>
+    <row r="2418">
+      <c s="2" r="A2418"/>
+    </row>
+    <row r="2419">
+      <c s="2" r="A2419"/>
+    </row>
+    <row r="2420">
+      <c s="2" r="A2420"/>
+    </row>
+    <row r="2421">
+      <c s="2" r="A2421"/>
+    </row>
+    <row r="2422">
+      <c s="2" r="A2422"/>
+    </row>
+    <row r="2423">
+      <c s="2" r="A2423"/>
+    </row>
+    <row r="2424">
+      <c s="2" r="A2424"/>
+    </row>
+    <row r="2425">
+      <c s="2" r="A2425"/>
+    </row>
+    <row r="2426">
+      <c s="2" r="A2426"/>
+    </row>
+    <row r="2427">
+      <c s="2" r="A2427"/>
+    </row>
+    <row r="2428">
+      <c s="2" r="A2428"/>
+    </row>
+    <row r="2429">
+      <c s="2" r="A2429"/>
+    </row>
+    <row r="2430">
+      <c s="2" r="A2430"/>
+    </row>
+    <row r="2431">
+      <c s="2" r="A2431"/>
+    </row>
+    <row r="2432">
+      <c s="2" r="A2432"/>
+    </row>
+    <row r="2433">
+      <c s="2" r="A2433"/>
+    </row>
+    <row r="2434">
+      <c s="2" r="A2434"/>
+    </row>
+    <row r="2435">
+      <c s="2" r="A2435"/>
+    </row>
+    <row r="2436">
+      <c s="2" r="A2436"/>
+    </row>
+    <row r="2437">
+      <c s="2" r="A2437"/>
+    </row>
+    <row r="2438">
+      <c s="2" r="A2438"/>
+    </row>
+    <row r="2439">
+      <c s="2" r="A2439"/>
+    </row>
+    <row r="2440">
+      <c s="2" r="A2440"/>
+    </row>
+    <row r="2441">
+      <c s="2" r="A2441"/>
+    </row>
+    <row r="2442">
+      <c s="2" r="A2442"/>
+    </row>
+    <row r="2443">
+      <c s="2" r="A2443"/>
+    </row>
+    <row r="2444">
+      <c s="2" r="A2444"/>
+    </row>
+    <row r="2445">
+      <c s="2" r="A2445"/>
+    </row>
+    <row r="2446">
+      <c s="2" r="A2446"/>
+    </row>
+    <row r="2447">
+      <c s="2" r="A2447"/>
+    </row>
+    <row r="2448">
+      <c s="2" r="A2448"/>
+    </row>
+    <row r="2449">
+      <c s="2" r="A2449"/>
+    </row>
+    <row r="2450">
+      <c s="2" r="A2450"/>
+    </row>
+    <row r="2451">
+      <c s="2" r="A2451"/>
+    </row>
+    <row r="2452">
+      <c s="2" r="A2452"/>
+    </row>
+    <row r="2453">
+      <c s="2" r="A2453"/>
+    </row>
+    <row r="2454">
+      <c s="2" r="A2454"/>
+    </row>
+    <row r="2455">
+      <c s="2" r="A2455"/>
+    </row>
+    <row r="2456">
+      <c s="2" r="A2456"/>
+    </row>
+    <row r="2457">
+      <c s="2" r="A2457"/>
+    </row>
+    <row r="2458">
+      <c s="2" r="A2458"/>
+    </row>
+    <row r="2459">
+      <c s="2" r="A2459"/>
+    </row>
+    <row r="2460">
+      <c s="2" r="A2460"/>
+    </row>
+    <row r="2461">
+      <c s="2" r="A2461"/>
+    </row>
+    <row r="2462">
+      <c s="2" r="A2462"/>
+    </row>
+    <row r="2463">
+      <c s="2" r="A2463"/>
+    </row>
+    <row r="2464">
+      <c s="2" r="A2464"/>
+    </row>
+    <row r="2465">
+      <c s="2" r="A2465"/>
+    </row>
+    <row r="2466">
+      <c s="2" r="A2466"/>
+    </row>
+    <row r="2467">
+      <c s="2" r="A2467"/>
+    </row>
+    <row r="2468">
+      <c s="2" r="A2468"/>
+    </row>
+    <row r="2469">
+      <c s="2" r="A2469"/>
+    </row>
+    <row r="2470">
+      <c s="2" r="A2470"/>
+    </row>
+    <row r="2471">
+      <c s="2" r="A2471"/>
+    </row>
+    <row r="2472">
+      <c s="2" r="A2472"/>
+    </row>
+    <row r="2473">
+      <c s="2" r="A2473"/>
+    </row>
+    <row r="2474">
+      <c s="2" r="A2474"/>
+    </row>
+    <row r="2475">
+      <c s="2" r="A2475"/>
+    </row>
+    <row r="2476">
+      <c s="2" r="A2476"/>
+    </row>
+    <row r="2477">
+      <c s="2" r="A2477"/>
+    </row>
+    <row r="2478">
+      <c s="2" r="A2478"/>
+    </row>
+    <row r="2479">
+      <c s="2" r="A2479"/>
+    </row>
+    <row r="2480">
+      <c s="2" r="A2480"/>
+    </row>
+    <row r="2481">
+      <c s="2" r="A2481"/>
+    </row>
+    <row r="2482">
+      <c s="2" r="A2482"/>
+    </row>
+    <row r="2483">
+      <c s="2" r="A2483"/>
+    </row>
+    <row r="2484">
+      <c s="2" r="A2484"/>
+    </row>
+    <row r="2485">
+      <c s="2" r="A2485"/>
+    </row>
+    <row r="2486">
+      <c s="2" r="A2486"/>
+    </row>
+    <row r="2487">
+      <c s="2" r="A2487"/>
+    </row>
+    <row r="2488">
+      <c s="2" r="A2488"/>
+    </row>
+    <row r="2489">
+      <c s="2" r="A2489"/>
+    </row>
+    <row r="2490">
+      <c s="2" r="A2490"/>
+    </row>
+    <row r="2491">
+      <c s="2" r="A2491"/>
+    </row>
+    <row r="2492">
+      <c s="2" r="A2492"/>
+    </row>
+    <row r="2493">
+      <c s="2" r="A2493"/>
+    </row>
+    <row r="2494">
+      <c s="2" r="A2494"/>
+    </row>
+    <row r="2495">
+      <c s="2" r="A2495"/>
+    </row>
+    <row r="2496">
+      <c s="2" r="A2496"/>
+    </row>
+    <row r="2497">
+      <c s="2" r="A2497"/>
+    </row>
+    <row r="2498">
+      <c s="2" r="A2498"/>
+    </row>
+    <row r="2499">
+      <c s="2" r="A2499"/>
+    </row>
+    <row r="2500">
+      <c s="2" r="A2500"/>
+    </row>
+    <row r="2501">
+      <c s="2" r="A2501"/>
+    </row>
+    <row r="2502">
+      <c s="2" r="A2502"/>
+    </row>
+    <row r="2503">
+      <c s="2" r="A2503"/>
+    </row>
+    <row r="2504">
+      <c s="2" r="A2504"/>
+    </row>
+    <row r="2505">
+      <c s="2" r="A2505"/>
+    </row>
+    <row r="2506">
+      <c s="2" r="A2506"/>
+    </row>
+    <row r="2507">
+      <c s="2" r="A2507"/>
+    </row>
+    <row r="2508">
+      <c s="2" r="A2508"/>
+    </row>
+    <row r="2509">
+      <c s="2" r="A2509"/>
+    </row>
+    <row r="2510">
+      <c s="2" r="A2510"/>
+    </row>
+    <row r="2511">
+      <c s="2" r="A2511"/>
+    </row>
+    <row r="2512">
+      <c s="2" r="A2512"/>
+    </row>
+    <row r="2513">
+      <c s="2" r="A2513"/>
+    </row>
+    <row r="2514">
+      <c s="2" r="A2514"/>
+    </row>
+    <row r="2515">
+      <c s="2" r="A2515"/>
+    </row>
+    <row r="2516">
+      <c s="2" r="A2516"/>
+    </row>
+    <row r="2517">
+      <c s="2" r="A2517"/>
+    </row>
+    <row r="2518">
+      <c s="2" r="A2518"/>
+    </row>
+    <row r="2519">
+      <c s="2" r="A2519"/>
+    </row>
+    <row r="2520">
+      <c s="2" r="A2520"/>
+    </row>
+    <row r="2521">
+      <c s="2" r="A2521"/>
+    </row>
+    <row r="2522">
+      <c s="2" r="A2522"/>
+    </row>
+    <row r="2523">
+      <c s="2" r="A2523"/>
+    </row>
+    <row r="2524">
+      <c s="2" r="A2524"/>
+    </row>
+    <row r="2525">
+      <c s="2" r="A2525"/>
+    </row>
+    <row r="2526">
+      <c s="2" r="A2526"/>
+    </row>
+    <row r="2527">
+      <c s="2" r="A2527"/>
+    </row>
+    <row r="2528">
+      <c s="2" r="A2528"/>
+    </row>
+    <row r="2529">
+      <c s="2" r="A2529"/>
+    </row>
+    <row r="2530">
+      <c s="2" r="A2530"/>
+    </row>
+    <row r="2531">
+      <c s="2" r="A2531"/>
+    </row>
+    <row r="2532">
+      <c s="2" r="A2532"/>
+    </row>
+    <row r="2533">
+      <c s="2" r="A2533"/>
+    </row>
+    <row r="2534">
+      <c s="2" r="A2534"/>
+    </row>
+    <row r="2535">
+      <c s="2" r="A2535"/>
+    </row>
+    <row r="2536">
+      <c s="2" r="A2536"/>
+    </row>
+    <row r="2537">
+      <c s="2" r="A2537"/>
+    </row>
+    <row r="2538">
+      <c s="2" r="A2538"/>
+    </row>
+    <row r="2539">
+      <c s="2" r="A2539"/>
+    </row>
+    <row r="2540">
+      <c s="2" r="A2540"/>
+    </row>
+    <row r="2541">
+      <c s="2" r="A2541"/>
+    </row>
+    <row r="2542">
+      <c s="2" r="A2542"/>
+    </row>
+    <row r="2543">
+      <c s="2" r="A2543"/>
+    </row>
+    <row r="2544">
+      <c s="2" r="A2544"/>
+    </row>
+    <row r="2545">
+      <c s="2" r="A2545"/>
+    </row>
+    <row r="2546">
+      <c s="2" r="A2546"/>
+    </row>
+    <row r="2547">
+      <c s="2" r="A2547"/>
+    </row>
+    <row r="2548">
+      <c s="2" r="A2548"/>
+    </row>
+    <row r="2549">
+      <c s="2" r="A2549"/>
+    </row>
+    <row r="2550">
+      <c s="2" r="A2550"/>
+    </row>
+    <row r="2551">
+      <c s="2" r="A2551"/>
+    </row>
+    <row r="2552">
+      <c s="2" r="A2552"/>
+    </row>
+    <row r="2553">
+      <c s="2" r="A2553"/>
+    </row>
+    <row r="2554">
+      <c s="2" r="A2554"/>
+    </row>
+    <row r="2555">
+      <c s="2" r="A2555"/>
+    </row>
+    <row r="2556">
+      <c s="2" r="A2556"/>
+    </row>
+    <row r="2557">
+      <c s="2" r="A2557"/>
+    </row>
+    <row r="2558">
+      <c s="2" r="A2558"/>
+    </row>
+    <row r="2559">
+      <c s="2" r="A2559"/>
+    </row>
+    <row r="2560">
+      <c s="2" r="A2560"/>
+    </row>
+    <row r="2561">
+      <c s="2" r="A2561"/>
+    </row>
+    <row r="2562">
+      <c s="2" r="A2562"/>
+    </row>
+    <row r="2563">
+      <c s="2" r="A2563"/>
+    </row>
+    <row r="2564">
+      <c s="2" r="A2564"/>
+    </row>
+    <row r="2565">
+      <c s="2" r="A2565"/>
+    </row>
+    <row r="2566">
+      <c s="2" r="A2566"/>
+    </row>
+    <row r="2567">
+      <c s="2" r="A2567"/>
+    </row>
+    <row r="2568">
+      <c s="2" r="A2568"/>
+    </row>
+    <row r="2569">
+      <c s="2" r="A2569"/>
+    </row>
+    <row r="2570">
+      <c s="2" r="A2570"/>
+    </row>
+    <row r="2571">
+      <c s="2" r="A2571"/>
+    </row>
+    <row r="2572">
+      <c s="2" r="A2572"/>
+    </row>
+    <row r="2573">
+      <c s="2" r="A2573"/>
+    </row>
+    <row r="2574">
+      <c s="2" r="A2574"/>
+    </row>
+    <row r="2575">
+      <c s="2" r="A2575"/>
+    </row>
+    <row r="2576">
+      <c s="2" r="A2576"/>
+    </row>
+    <row r="2577">
+      <c s="2" r="A2577"/>
+    </row>
+    <row r="2578">
+      <c s="2" r="A2578"/>
+    </row>
+    <row r="2579">
+      <c s="2" r="A2579"/>
+    </row>
+    <row r="2580">
+      <c s="2" r="A2580"/>
+    </row>
+    <row r="2581">
+      <c s="2" r="A2581"/>
+    </row>
+    <row r="2582">
+      <c s="2" r="A2582"/>
+    </row>
+    <row r="2583">
+      <c s="2" r="A2583"/>
+    </row>
+    <row r="2584">
+      <c s="2" r="A2584"/>
+    </row>
+    <row r="2585">
+      <c s="2" r="A2585"/>
+    </row>
+    <row r="2586">
+      <c s="2" r="A2586"/>
+    </row>
+    <row r="2587">
+      <c s="2" r="A2587"/>
+    </row>
+    <row r="2588">
+      <c s="2" r="A2588"/>
+    </row>
+    <row r="2589">
+      <c s="2" r="A2589"/>
+    </row>
+    <row r="2590">
+      <c s="2" r="A2590"/>
+    </row>
+    <row r="2591">
+      <c s="2" r="A2591"/>
+    </row>
+    <row r="2592">
+      <c s="2" r="A2592"/>
+    </row>
+    <row r="2593">
+      <c s="2" r="A2593"/>
+    </row>
+    <row r="2594">
+      <c s="2" r="A2594"/>
+    </row>
+    <row r="2595">
+      <c s="2" r="A2595"/>
+    </row>
+    <row r="2596">
+      <c s="2" r="A2596"/>
+    </row>
+    <row r="2597">
+      <c s="2" r="A2597"/>
+    </row>
+    <row r="2598">
+      <c s="2" r="A2598"/>
+    </row>
+    <row r="2599">
+      <c s="2" r="A2599"/>
+    </row>
+    <row r="2600">
+      <c s="2" r="A2600"/>
+    </row>
+    <row r="2601">
+      <c s="2" r="A2601"/>
+    </row>
+    <row r="2602">
+      <c s="2" r="A2602"/>
+    </row>
+    <row r="2603">
+      <c s="2" r="A2603"/>
+    </row>
+    <row r="2604">
+      <c s="2" r="A2604"/>
+    </row>
+    <row r="2605">
+      <c s="2" r="A2605"/>
+    </row>
+    <row r="2606">
+      <c s="2" r="A2606"/>
+    </row>
+    <row r="2607">
+      <c s="2" r="A2607"/>
+    </row>
+    <row r="2608">
+      <c s="2" r="A2608"/>
+    </row>
+    <row r="2609">
+      <c s="2" r="A2609"/>
+    </row>
+    <row r="2610">
+      <c s="2" r="A2610"/>
+    </row>
+    <row r="2611">
+      <c s="2" r="A2611"/>
+    </row>
+    <row r="2612">
+      <c s="2" r="A2612"/>
+    </row>
+    <row r="2613">
+      <c s="2" r="A2613"/>
+    </row>
+    <row r="2614">
+      <c s="2" r="A2614"/>
+    </row>
+    <row r="2615">
+      <c s="2" r="A2615"/>
+    </row>
+    <row r="2616">
+      <c s="2" r="A2616"/>
+    </row>
+    <row r="2617">
+      <c s="2" r="A2617"/>
+    </row>
+    <row r="2618">
+      <c s="2" r="A2618"/>
+    </row>
+    <row r="2619">
+      <c s="2" r="A2619"/>
+    </row>
+    <row r="2620">
+      <c s="2" r="A2620"/>
+    </row>
+    <row r="2621">
+      <c s="2" r="A2621"/>
+    </row>
+    <row r="2622">
+      <c s="2" r="A2622"/>
+    </row>
+    <row r="2623">
+      <c s="2" r="A2623"/>
+    </row>
+    <row r="2624">
+      <c s="2" r="A2624"/>
+    </row>
+    <row r="2625">
+      <c s="2" r="A2625"/>
+    </row>
+    <row r="2626">
+      <c s="2" r="A2626"/>
+    </row>
+    <row r="2627">
+      <c s="2" r="A2627"/>
+    </row>
+    <row r="2628">
+      <c s="2" r="A2628"/>
+    </row>
+    <row r="2629">
+      <c s="2" r="A2629"/>
+    </row>
+    <row r="2630">
+      <c s="2" r="A2630"/>
+    </row>
+    <row r="2631">
+      <c s="2" r="A2631"/>
+    </row>
+    <row r="2632">
+      <c s="2" r="A2632"/>
+    </row>
+    <row r="2633">
+      <c s="2" r="A2633"/>
+    </row>
+    <row r="2634">
+      <c s="2" r="A2634"/>
+    </row>
+    <row r="2635">
+      <c s="2" r="A2635"/>
+    </row>
+    <row r="2636">
+      <c s="2" r="A2636"/>
+    </row>
+    <row r="2637">
+      <c s="2" r="A2637"/>
+    </row>
+    <row r="2638">
+      <c s="2" r="A2638"/>
+    </row>
+    <row r="2639">
+      <c s="2" r="A2639"/>
+    </row>
+    <row r="2640">
+      <c s="2" r="A2640"/>
+    </row>
+    <row r="2641">
+      <c s="2" r="A2641"/>
+    </row>
+    <row r="2642">
+      <c s="2" r="A2642"/>
+    </row>
+    <row r="2643">
+      <c s="2" r="A2643"/>
+    </row>
+    <row r="2644">
+      <c s="2" r="A2644"/>
+    </row>
+    <row r="2645">
+      <c s="2" r="A2645"/>
+    </row>
+    <row r="2646">
+      <c s="2" r="A2646"/>
+    </row>
+    <row r="2647">
+      <c s="2" r="A2647"/>
+    </row>
+    <row r="2648">
+      <c s="2" r="A2648"/>
+    </row>
+    <row r="2649">
+      <c s="2" r="A2649"/>
+    </row>
+    <row r="2650">
+      <c s="2" r="A2650"/>
+    </row>
+    <row r="2651">
+      <c s="2" r="A2651"/>
+    </row>
+    <row r="2652">
+      <c s="2" r="A2652"/>
+    </row>
+    <row r="2653">
+      <c s="2" r="A2653"/>
+    </row>
+    <row r="2654">
+      <c s="2" r="A2654"/>
+    </row>
+    <row r="2655">
+      <c s="2" r="A2655"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
